--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC00A161-6A3D-F045-9478-6F933BA608C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A0083A-CEEE-4A49-A1C4-2CE78098EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="363">
   <si>
     <t>RSVP</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Yike</t>
   </si>
   <si>
-    <t>Brandon Mitchell, Rodrigo Delgado, Amir Ouyed, Richard Ferrare, Johnathan Hair, Chris Hostetler, Amy Jo Scarino, Armin Sorooshian, Kenneth Lee Thornhill</t>
-  </si>
-  <si>
     <t>yikexu@arizona.edu</t>
   </si>
   <si>
@@ -266,15 +263,9 @@
     <t>https://docs.google.com/document/d/1PfQCbWtJszA-Zxo2hww9ceIxFuvTZrT7/edit#</t>
   </si>
   <si>
-    <t>Andrew Ackerman, Gao Chen, Andrea F. Corral,  Ewan Crosbie, Glenn S. Diskin, Simon Kirschler, David Painemal, Michael Shook, K. Lee Thornhill,  Christiane Voigt, Hailong Wang, Luke D. Ziemba, Paquita Zuidema</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1a07PchQZ1tncbSa8R_ha8yTf2Kz8_Pxn/edit</t>
   </si>
   <si>
-    <t>Hsin-I Chang, Rodrigo Valdés-Pineda, Christoforus Bayu Risanto</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1SGGN91-uvRxBiWV9ZlXOcHerdzgqMvvk/edit</t>
   </si>
   <si>
@@ -420,9 +411,6 @@
   </si>
   <si>
     <t>Armin Sorooshian</t>
-  </si>
-  <si>
-    <t>Dr. Whitaker; HWRS 498: Senior Capstone</t>
   </si>
   <si>
     <t>Avelino F. Arellano</t>
@@ -1763,12 +1751,48 @@
   <si>
     <t>ENR2 S215, S225</t>
   </si>
+  <si>
+    <t>C. Bayu Risanto, Christopher Castro</t>
+  </si>
+  <si>
+    <t>Xiquan Dong, Baike Xi, and Xiang Zhong</t>
+  </si>
+  <si>
+    <t>Michael Brunke, Annalisa Minke, Yike Xu, Xubin Zeng</t>
+  </si>
+  <si>
+    <t>Yang Song, Lianhong Gu, Tianyi Hu, Changpeng Fan, Xueyan Zhang</t>
+  </si>
+  <si>
+    <t>Eylon Shamir, Lourdes Mendoza Fierro, Hsin-I Chang, Christopher Castro, Claire Acke and Norman Pelak</t>
+  </si>
+  <si>
+    <t>Dr. Whitaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aniket Gupta, Ahmad Tavakoly, Matthew Geheran</t>
+  </si>
+  <si>
+    <t>Tao Liu, Victor R. Baker</t>
+  </si>
+  <si>
+    <t>Taiwo Ajayi, Yonghoon Choi, Ewan C. Crosbie, Joshua P. DiGangi, Glenn S. Diskin, Marta A. Fenn, Richard A. Ferrare, Francesca Gallo, Johnathan W. Hair, Miguel Ricardo A. Hilario1, Simon Kirschler, Richard H. Moore, Taylor J. Shingler, Michael A. Shook, Kenneth L. Thornhill, Christiane Voigt, Edward L. Winstead, Luke D. Ziemba</t>
+  </si>
+  <si>
+    <t>Xue‐Yan Zhang, Yuanhao Fang,  Peter A Troch, Bo Guo, L Ruby Leung, Michael A Brunke, Patrick Broxton, Xubin Zeng</t>
+  </si>
+  <si>
+    <t>Chayan Roychoudhury, Amin Mirrezaei, Yafang Guo, Benjamin Gaubert</t>
+  </si>
+  <si>
+    <t>Dr. David Ryglicki</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1947,6 +1971,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1990,7 +2020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2041,6 +2071,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2263,10 +2294,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2360,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -2372,26 +2403,26 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="8"/>
@@ -2402,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2414,25 +2445,25 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O3" s="2"/>
     </row>
@@ -2447,7 +2478,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2456,26 +2487,26 @@
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="8"/>
@@ -2486,10 +2517,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2498,29 +2529,29 @@
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -2530,10 +2561,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2542,25 +2573,25 @@
         <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>40</v>
@@ -2574,10 +2605,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2586,25 +2617,25 @@
         <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -2616,10 +2647,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2628,26 +2659,26 @@
         <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>44</v>
@@ -2660,10 +2691,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -2672,25 +2703,25 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -2702,10 +2733,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -2714,26 +2745,26 @@
         <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>51</v>
@@ -2748,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -2760,25 +2791,25 @@
         <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -2788,10 +2819,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -2800,26 +2831,26 @@
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="8"/>
@@ -2830,10 +2861,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -2842,25 +2873,25 @@
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -2870,10 +2901,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -2882,28 +2913,28 @@
         <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2915,7 +2946,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -2927,25 +2958,25 @@
         <v>38</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2956,10 +2987,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -2968,25 +2999,25 @@
         <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -2996,10 +3027,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -3008,25 +3039,25 @@
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>45</v>
@@ -3040,10 +3071,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -3052,26 +3083,26 @@
         <v>20</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="15"/>
@@ -3084,10 +3115,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -3096,26 +3127,26 @@
         <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="12"/>
@@ -3126,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -3138,25 +3169,25 @@
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -3168,10 +3199,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -3180,25 +3211,25 @@
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O21" s="2"/>
     </row>
@@ -3211,7 +3242,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -3223,23 +3254,23 @@
         <v>37</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="8"/>
@@ -3252,10 +3283,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -3264,28 +3295,28 @@
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,34 +3325,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
@@ -3332,34 +3363,34 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
@@ -3370,34 +3401,34 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
@@ -3411,28 +3442,28 @@
         <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L27" s="2"/>
       <c r="N27" s="2"/>
@@ -3447,7 +3478,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>16</v>
@@ -3456,28 +3487,28 @@
         <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P28" s="33">
         <v>0.39583333333333331</v>
@@ -3494,7 +3525,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -3509,21 +3540,23 @@
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="P29" s="33">
         <v>0.40625</v>
       </c>
@@ -3534,7 +3567,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
@@ -3552,21 +3585,23 @@
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="P30" s="33">
         <v>0.41666666666666669</v>
       </c>
@@ -3579,10 +3614,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -3591,28 +3626,28 @@
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>60</v>
+        <v>358</v>
       </c>
       <c r="P31" s="33">
         <v>0.42708333333333331</v>
@@ -3626,10 +3661,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>16</v>
@@ -3638,27 +3673,29 @@
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>43</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="O32" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="P32" s="33">
         <v>0.4375</v>
       </c>
@@ -3669,10 +3706,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -3681,27 +3718,29 @@
         <v>22</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="P33" s="33">
         <v>0.54166666666666663</v>
       </c>
@@ -3712,10 +3751,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -3724,27 +3763,29 @@
         <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="P34" s="33">
         <v>0.55208333333333337</v>
       </c>
@@ -3755,10 +3796,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>16</v>
@@ -3767,28 +3808,28 @@
         <v>22</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
       <c r="P35" s="33">
         <v>0.5625</v>
@@ -3800,10 +3841,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -3812,25 +3853,27 @@
         <v>22</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N36" s="9"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="P36" s="33">
         <v>0.57291666666666663</v>
       </c>
@@ -3844,7 +3887,7 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>21</v>
@@ -3859,22 +3902,24 @@
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="P37" s="33">
         <v>0.625</v>
       </c>
@@ -3887,10 +3932,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
@@ -3899,28 +3944,30 @@
         <v>17</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O38" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="P38" s="33">
         <v>0.63541666666666663</v>
       </c>
@@ -3933,10 +3980,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3945,28 +3992,30 @@
         <v>17</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="P39" s="33">
         <v>0.64583333333333337</v>
       </c>
@@ -3977,10 +4026,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -3989,27 +4038,27 @@
         <v>17</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>53</v>
+        <v>361</v>
       </c>
       <c r="P40" s="33">
         <v>0.65625</v>
@@ -4081,8 +4130,6 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
@@ -4097,8 +4144,8 @@
     </row>
     <row r="46" spans="1:16" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="3"/>
@@ -4113,7 +4160,7 @@
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4129,7 +4176,7 @@
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4145,8 +4192,8 @@
     </row>
     <row r="49" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="17"/>
       <c r="E49" s="24"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -4161,8 +4208,8 @@
     </row>
     <row r="50" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -4177,7 +4224,7 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -4194,7 +4241,7 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4211,7 +4258,7 @@
     </row>
     <row r="53" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4228,7 +4275,7 @@
     </row>
     <row r="54" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -4244,16 +4291,22 @@
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="J55" s="2"/>
       <c r="L55" s="2"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="J56" s="2"/>
       <c r="L56" s="2"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="J57" s="2"/>
       <c r="L57" s="2"/>
       <c r="O57" s="2"/>
@@ -4285,8 +4338,6 @@
     </row>
     <row r="63" spans="1:16" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="3"/>
@@ -4301,8 +4352,6 @@
     </row>
     <row r="64" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
@@ -4318,8 +4367,6 @@
     </row>
     <row r="65" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
@@ -4334,8 +4381,6 @@
     </row>
     <row r="66" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
@@ -4351,8 +4396,6 @@
     </row>
     <row r="67" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
@@ -4368,8 +4411,6 @@
     </row>
     <row r="68" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
@@ -4384,8 +4425,6 @@
     </row>
     <row r="69" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
@@ -4400,8 +4439,6 @@
     </row>
     <row r="70" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
@@ -4416,8 +4453,6 @@
     </row>
     <row r="71" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
@@ -4432,8 +4467,6 @@
     </row>
     <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
@@ -4448,8 +4481,6 @@
     </row>
     <row r="73" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
@@ -4464,8 +4495,6 @@
     </row>
     <row r="74" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
@@ -9174,23 +9203,23 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9198,23 +9227,23 @@
         <v>0.40625</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9222,23 +9251,23 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9246,23 +9275,23 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9270,23 +9299,23 @@
         <v>0.4375</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9294,14 +9323,14 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -9312,7 +9341,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9326,12 +9355,12 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -9342,23 +9371,23 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9366,23 +9395,23 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9390,23 +9419,23 @@
         <v>0.5625</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9414,23 +9443,23 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9438,14 +9467,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -9456,23 +9485,23 @@
         <v>0.625</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9480,23 +9509,23 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9504,23 +9533,23 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9528,23 +9557,23 @@
         <v>0.65625</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9552,16 +9581,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A0083A-CEEE-4A49-A1C4-2CE78098EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD1DD0-F979-D94F-A8AD-9920B879659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="740" windowWidth="24960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="old references" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="397">
   <si>
     <t>RSVP</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Marleigh</t>
   </si>
   <si>
-    <t>Holland Goodrum Sterling, Robert Jimenez-Wieneke</t>
-  </si>
-  <si>
     <t>Cassidy</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
     <t>https://docs.google.com/document/d/17rNM4Vhy8-FrHhUmX3UjUlvac9JFZ7ox/edit</t>
   </si>
   <si>
-    <t>Leif Abrell, Danielle Barrientes, Jon Chorover, Mónica Ramírez-Andreotta</t>
-  </si>
-  <si>
-    <t>Hoshin Gupta</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1wabVDTnpvi-H4SDTsLTWwFHowEt0bwXJ/edit</t>
   </si>
   <si>
@@ -245,18 +236,12 @@
     <t>dgirone@arizona.edu</t>
   </si>
   <si>
-    <t>Ava Lasater, Nick McFarlin, Brandolyn Baeza, Eden Harper, James O’Neil, Dylan Simpson, Cassidy Chang</t>
-  </si>
-  <si>
     <t>Yike</t>
   </si>
   <si>
     <t>yikexu@arizona.edu</t>
   </si>
   <si>
-    <t>Mekha Pereira, Laura Condon</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1EhA3XwAbocklGjExezvj3TELEHLVRJUN/edit</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
     <t>https://docs.google.com/document/d/11Ltr3sG6PkuUpSFIIXoaWZ-Eeb1LNfM5/edit</t>
   </si>
   <si>
-    <t>Amin Mirrezaei, Yafang Guo, Chayan Roychoudhury, Avelino Arellano, Armin Sorooshian, Grace Betito</t>
-  </si>
-  <si>
     <t>amirrezaei@arizona.edu</t>
   </si>
   <si>
@@ -324,18 +306,6 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1NyIf6tCpo41s7DG92FTiFAaUvRqb5B2y/edit</t>
-  </si>
-  <si>
-    <t>Justin Headley</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1E0xJhGp48KWw4WnaTD-nWE-DO_kM-9if/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19iGFV111d7WawooxUSoZU6HZbQzZDzlI/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1S5pcQOn_9zHKe8FNm8_NfzNeoRi2RxVP/view?usp=sharing</t>
   </si>
   <si>
     <t>Jacob</t>
@@ -523,9 +493,6 @@
     <t>Charles</t>
   </si>
   <si>
-    <t>Constantinos</t>
-  </si>
-  <si>
     <t>Eden</t>
   </si>
   <si>
@@ -538,9 +505,6 @@
     <t>ICREWW</t>
   </si>
   <si>
-    <t>Jessi</t>
-  </si>
-  <si>
     <t>Jonathan</t>
   </si>
   <si>
@@ -568,96 +532,12 @@
     <t>Taiwo</t>
   </si>
   <si>
-    <t>Thabo</t>
-  </si>
-  <si>
     <t>Tong</t>
   </si>
   <si>
     <t>Xiang</t>
   </si>
   <si>
-    <t>Andrew Hoopes-P1</t>
-  </si>
-  <si>
-    <t>Manoli-P3</t>
-  </si>
-  <si>
-    <t>Tadych-P4</t>
-  </si>
-  <si>
-    <t>Harper-P5</t>
-  </si>
-  <si>
-    <t>Giralte-P6</t>
-  </si>
-  <si>
-    <t>Yousefi Sohi-P7</t>
-  </si>
-  <si>
-    <t>Team-P8</t>
-  </si>
-  <si>
-    <t>Natale-P9</t>
-  </si>
-  <si>
-    <t>Smith-P10</t>
-  </si>
-  <si>
-    <t>Moeschl-P11</t>
-  </si>
-  <si>
-    <t>Du-P12</t>
-  </si>
-  <si>
-    <t>Hasenstab-P13</t>
-  </si>
-  <si>
-    <t>Headley-P14</t>
-  </si>
-  <si>
-    <t>Nicholas-P16</t>
-  </si>
-  <si>
-    <t>Ma-P17</t>
-  </si>
-  <si>
-    <t>Amin Mirrezaei-P18</t>
-  </si>
-  <si>
-    <t>Yurek-P19</t>
-  </si>
-  <si>
-    <t>Zandi-P20</t>
-  </si>
-  <si>
-    <t>Puente-P21</t>
-  </si>
-  <si>
-    <t>Roberts-P22</t>
-  </si>
-  <si>
-    <t>Wilson-P23</t>
-  </si>
-  <si>
-    <t>Ajayi-P24</t>
-  </si>
-  <si>
-    <t>Elias Makgoale-P25</t>
-  </si>
-  <si>
-    <t>Guo-P26</t>
-  </si>
-  <si>
-    <t>Zhong-P27</t>
-  </si>
-  <si>
-    <t>Xu-P28</t>
-  </si>
-  <si>
-    <t>constantinosm@stcyril.com</t>
-  </si>
-  <si>
     <t>dtadych@arizona.edu</t>
   </si>
   <si>
@@ -712,27 +592,9 @@
     <t>zhongx@arizona.edu</t>
   </si>
   <si>
-    <t>Atmospheric Science</t>
-  </si>
-  <si>
-    <t>These are 8th grade students</t>
-  </si>
-  <si>
-    <t>Hydrology</t>
-  </si>
-  <si>
-    <t>Natural Resources, Bioinformatics, Hydrology &amp; Atmospheric Sciences, Geography, Ecology &amp; Evolutionary Biology, Mathematics</t>
-  </si>
-  <si>
-    <t>Applied Mathematics / Minor in Hydrology</t>
-  </si>
-  <si>
     <t>Lon Hood &amp; Chris Castro</t>
   </si>
   <si>
-    <t>Constantinos Manoli, PhD (Teacher)</t>
-  </si>
-  <si>
     <t>Martha Whitaker</t>
   </si>
   <si>
@@ -775,9 +637,6 @@
     <t>Effects of ~27-Day Solar Ultraviolet Variations on Tropical Precipitation and the Madden-Julian Oscillation</t>
   </si>
   <si>
-    <t>A Case Study: Aerosol levels in Mid-town Tucson</t>
-  </si>
-  <si>
     <t>Scaling Down: Unveiling Heterogeneity in Arizona's Groundwater Landscape</t>
   </si>
   <si>
@@ -856,9 +715,6 @@
     <t>https://drive.google.com/open?id=1iG-Qan38X647saCOJyiUctsp4ruEBsWY</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1WTt3GJ9ZUGxa1oWcwfdAWiNwJnllKM2Z</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1E_9T28Axps36lXrGmn9mzxbCqSeksLum</t>
   </si>
   <si>
@@ -934,22 +790,7 @@
     <t>https://drive.google.com/open?id=1S8LXsGOY1GOlfAWe-8Ee-THGRHysJVtz</t>
   </si>
   <si>
-    <t>Poster Session 3</t>
-  </si>
-  <si>
-    <t>Poster Session 4</t>
-  </si>
-  <si>
-    <t>Poster Session 5</t>
-  </si>
-  <si>
     <t>Poster Session 6</t>
-  </si>
-  <si>
-    <t>Composite analyses of NOAA satellite-based outgoing longwave radiation data and ERA5 reanalysis data for nearly six solar maximum periods confirm the existence of a response of tropical convection and precipitation to short-term (mainly 27-day) solar ultraviolet variations, which has been suggested by previous research. After a solar UV peak, the response consists of an increase in average convection and precipitation in the equatorial Indian ocean and a decrease in the western and central tropical Pacific, with maximum amplitude at a lag of 4 to 8 days. The opposite occurs following short- term solar UV minima. The observed responses are most detectable when the Madden-Julian oscillation (MJO) is active and appear to be related to a reduced ability of the MJO to propagate across the Maritime Continent barrier following solar UV peaks relative to UV minima. Support for this response appears via a phase count of individual phases, which show an increased occurrence rate of early MJO phases, associated with increased convection over the Indian Ocean, and a decreased rate of later MJO phases, associated with increased convection over the Pacific Ocean, following short-term solar peaks. The overall behavior appears to be consistent between individual solar cycles, and is detectable at least as far back as 1959.  Additionally, the phases which appear to be influenced by solar activity have been found in previous work to affect the position of the storm track and jet stream over the Northern Pacific, presenting an intriguing possibility for future work in this area.</t>
-  </si>
-  <si>
-    <t>In an effort to address health issues due to air pollution, the 8th-grade students of St. Cyril of Alexandria Catholic School utilized data from their Purple Air Sensor unit on site to examine aerosol levels in relation to human activities and natural events. Specifically, the students investigated the levels of aerosols at their school site generated by student drop-off and pick-up traffic, student activity on the field during breaks, and the time of the day/week when aerosols are elevated. In addition, the students examined whether or not other human-related and natural causes impact the concentration of aerosols based on data collected from other Purple Air Sensor units in the Tucson area. Factors such as smoke from wildfires, proximity to the airport and Air Force base, proximity to open pit mining, impact from storms/precipitation, and wind speed were also taken into consideration. The data was collected from the Real-Time Air Quality Map website, supported by PurpleAir, and was analyzed using Microsoft Excel software. Graph illustrations allowed the comparison of impacting factors in relation to aerosol levels in the atmosphere and conclusion extraction. Overall, the school site air quality is very good and with minor exceptions, students are not in any danger of health issues from air pollution.</t>
   </si>
   <si>
     <t>Arizona is an interesting case study for groundwater management due to the complexity of groundwater legislation, land use, and access to surface water.  For this study, we zoom into areas with different land use, groundwater management, and social or legal controversies to determine groundwater trends and drought responses of these areas.  We downloaded data from groundwater monitoring wells for the period 2000-2022 and filtered to include wells with 15 years of data or more.  Linear trends, anomalies, and maximum drawdown for each study area were calculated.  State averaged Palmer Drought Severity Index was used to determine severe droughts.  Our results show that urban regions of Tucson and the Phoenix are experiencing less severe drought responses and increasing groundwater levels since 2000.  Flagstaff did not show any relationship to drought, but has experienced significant groundwater declines of greater than 200 feet.  Yuma, a highly agricultural region with direct access to Colorado River water, shows the least severe drawdown but slightly decreasing groundwater levels over time.  However, high priority groundwater subbasins identified in the Arizona Governor’s Water Policy Council Report (Ranegrass, Gila, and Wilcox) showed the largest decreases in groundwater and the worst drawdown during severe droughts.  Wilcox recorded a staggering 26-foot drawdown during the 2021 drought.  These areas are predominantly groundwater dependent but have had increased agricultural activity in recent years, having concerning implications for future sustainability.  Overall, our results highlight the importance of studying groundwater dynamics at smaller scales, enabling more tailored and effective groundwater management decisions.</t>
@@ -1227,49 +1068,6 @@
   </si>
   <si>
     <t xml:space="preserve">Biochar addition is a potential climate-smart agriculture practice due to biochar’s capacity to sequestrate carbon, hold water, and increase nutrient availability. However, these biochar benefits to agriculture and environments still showed large uncertainty depending on the physical and chemical characterization of biochar, and diverse soil environments where biochar is applied. To date, increased model efforts have outlined long-term single characterized biochar addition to a few sites, whereas there is still a lack of clear understanding about the effect of biochar addition on soil chemical and physical processes and the consequent impact on crop productivity, greenhouse gas (GHG) emission, and carbon sequestration, much less a comprehensive upscaling impact over diverse environments.  To address this knowledge fap, we explored the heterogeneity of biochar’s effect by integrating global-scale biochar addition experiments with process-based and artificial intelligence (AI) models. We incorporated biochar decomposition dynamics into the Community Land Model (CLM5.0). We integrated a total of 359 biochar addition experiments from 69 diverse locations across the globe to train and AI-based surrogate model for parameterizing the biochar effect on the decomposition of natural soil organic matter (SOM). We then applied the coupled CLM-AI model to investigate the heterogeneity of biochar’s effect on GHG emissions and carbon sequestration. Our results indicated that the carbon benefit of biochar addition would be more obvious in nutrient-deficient soils due to increased SOM adsorption by biochar and play carbon input with improved nutrient availability due to biochar-derived nitrogen mineralization. </t>
-  </si>
-  <si>
-    <r>
-      <t> Remote marine regions comprise a high fraction of Earth’s surface, but measurements over these locations remain scarce. Here we use airborne data during 15 vertical spiral soundings over Bermuda during the NASA Aerosol Cloud meTeorology Interactions over the western ATlantic Experiment (ACTIVATE) to understand the vertical structure of trace gases, aerosol particles, and meteorological variables over 1000 km offshore of the U.S. East Coast. Results reveal (i) significant differences in vertical profiles of variables between three different air mass source categories (North America, Ocean, Caribbean/North Africa) such as with the strongest (weakest) pollution signature from North America (Ocean) categories and a pronounced coarse aerosol signature in the free troposphere (FT) and reduced aerosol hygroscopicity in air masses from the Caribbean/North Africa; (ii) North American air generally has the highest levels of CO, CH</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, submicron particle number concentration, AMS mass, and highest organic mass fraction; (iii) Ocean air masses have the highest relative amount of nitrate, non-sea-salt sulfate, and oxalate, which are key acidic species participating in chloride depletion; (iv) considerable vertical heterogeneity for almost all variables with altitude, including higher O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and submicrometer particle concentrations with altitude, suggestive that the FT is a potential contributor of both constituents in the marine boundary layer; and (v) bimodal particle size distributions for each air mass type suggestive of cloud processing effects (i.e., Hoppel minimum). This study demonstrates the sensitivity of the remote marine vertical structure to different air mass sources and the significant vertical variability in atmospheric trace gases and aerosol constituents.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1787,12 +1585,473 @@
   <si>
     <t>Dr. David Ryglicki</t>
   </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Thabo Elias</t>
+  </si>
+  <si>
+    <t>Mohammad Amin</t>
+  </si>
+  <si>
+    <t>Jessi (Request AM Session)</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>acke@arizona.edu</t>
+  </si>
+  <si>
+    <t>gbetito@arizona.edu</t>
+  </si>
+  <si>
+    <t>hsterling@arizona.edu</t>
+  </si>
+  <si>
+    <t>aktriplett@arizona.edu</t>
+  </si>
+  <si>
+    <t>Hydrology &amp; Atmospheric Sciences</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>School of Geography, Development, &amp; Environment</t>
+  </si>
+  <si>
+    <t>SNRE, EEB, HAS, SGDE</t>
+  </si>
+  <si>
+    <t>Christopher Castro</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Temperature Trends in Mexico: Enhancing Risk Assessment for Mining Operations using Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Influence of transboundary pollution on the variability of surface ozone concentration in the Desert Southwest of the U.S.: Case study for Arizona</t>
+  </si>
+  <si>
+    <t>A live, interactive demonstration of the Arizona Streamgage Catalog (AZStreamCAT)</t>
+  </si>
+  <si>
+    <t>A parameter inversion framework for computationally expensive, physically-based hydrologic models using deep-learning methods</t>
+  </si>
+  <si>
+    <t>Lourdes Mendoza Fierro, Sahar Mohsenzadeh Karimi, Christopher L. Castro, Hsin-I Chang, Eylon Shamir, Norman Pelak</t>
+  </si>
+  <si>
+    <t>Yonghoon Choi, Ewan C. Crosbie, Joshua P. DiGangi, Glenn S. Diskin, Marta A. Fenn, Richard A. Ferrare, Johnathan W. Hair, Miguel Ricardo A. Hilario, Chris A. Hostetler, Simon Kirschler, Richard H. Moore, Taylor J. Shingler, Michael A. Shook, Cassidy Soloff1, Kenneth L. Thornhill, Christiane Voigt, Edward L. Winstead, Luke D. Ziemba, Armin Sorooshian</t>
+  </si>
+  <si>
+    <t>Guo-Yue Niu, Katerina Dontsova, Peter A. Troch, Jon Chorover</t>
+  </si>
+  <si>
+    <t>Marcus Lofverstrom</t>
+  </si>
+  <si>
+    <t>Grant Ferguson, Coleman Hiett, Peter Reiner, and Jennifer McIntosh</t>
+  </si>
+  <si>
+    <t>Neha Gupta, Justin Warlick, Eleonora Demaria</t>
+  </si>
+  <si>
+    <t>Jonathan Hasenstab, Dr. Andrew Salywon, Dr. Jennifer McIntosh</t>
+  </si>
+  <si>
+    <t>Dr. Jennifer McIntosh (advisor)</t>
+  </si>
+  <si>
+    <t>Lon Hood, Thomas Galarneau</t>
+  </si>
+  <si>
+    <t>Jicai Zeng; Bo Guo</t>
+  </si>
+  <si>
+    <t>Sylvia Sullivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yafang Guo1, Wenfu Tang2, Louisa K. Emmons2, Chayan Roychoudhury1and Avelino Arellano1
+1. Department of Hydrology and Atmospheric Sciences, University of Arizona, Tucson, AZ, USA
+2. Atmospheric Chemistry Observations &amp; Modeling Laboratory, National Center for Atmospheric Research, Boulder, CO, USA
+</t>
+  </si>
+  <si>
+    <t>SRP</t>
+  </si>
+  <si>
+    <t>Eden Harper, Roz Roberts, and Natalie Yurek</t>
+  </si>
+  <si>
+    <t>Xiquan Dong, Baike Xi, Jordann Brendecke</t>
+  </si>
+  <si>
+    <t>Mark L. Brusseau, Bo Guo</t>
+  </si>
+  <si>
+    <t>Holland Goodrum Sterling1, Robert Jimenez-Wieneke2, Marleigh Nicholas2, Martha P.L. Whitaker2</t>
+  </si>
+  <si>
+    <t>Laura Condon, Bonnie Colby</t>
+  </si>
+  <si>
+    <t>Kyle Skoda, Daniel Williams, Dylan Girone, Ava Lasater, Brandolyn Baeza, Alex Winter, Theresa Crimmins, Martha Whitaker</t>
+  </si>
+  <si>
+    <t>Sabrina Wilson1, Sagar Gautam2, Umakant Mishra2, Yang Song1</t>
+  </si>
+  <si>
+    <t>Yike Xu, Brandon Mitchell, Lauren Cutler ,Richard Ferrare , Johnathan Hair, Chris Hostetler, Amy Jo Scarino, Taylor Shingler ,Armin Sorooshian, Kenneth Lee Thornhill, Xubin Zeng</t>
+  </si>
+  <si>
+    <t>Eden Harper, Martha Whitaker</t>
+  </si>
+  <si>
+    <t>Kwabena Kingsley Kumah, Ali Behrangi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oaMBTFOqvBICdmy6iTYjX3GL8WOCu1ua</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17_3wWsyNnRhBpTo2ETHf4UsZ2R3Mwsq6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YrNNAHVFwB7J5PNprQLZa9cRqH8wlSg-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xzswudh0C8dhNhqFF2YCQkteUq18sYZS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q1RZNdW82l9QK3F7PhMs-qggZ6s9sa-T</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bXqfqbL7GjlkYmBBfvqyQZHJUhyeAB2y</t>
+  </si>
+  <si>
+    <t>The latest climate report from the Intergovernmental Panel on Climate Change (IPCC) projects a future increase in temperature and precipitation over Mexico. These changes, specifically temperature, are of particular concern to companies operating mines due to the strong economic income they bring to the country. Increasing temperatures can lead to increased water usage on-site, along with increased health risk to workers. For these reasons, mining companies have begun to incorporate climate reports into their risk management operations. These reports offer a great starting point but are very broad due to the resolution of Global Climate Models (GCMs). For more detailed insight of conditions at a particular site, an Inverse Distance Weight (IDW) method is applied by using three surrounding Comisión Nacional del Agua (CONAGUA) weather stations. These calculated values are then compared with NASA’s DayMet dataset. Statistical analysis can then be performed and can be used to create a Weather Generator (WG) that produces random, realistic weather scenarios over the region of interest. This more detailed analysis gives mining companies more accurate projections for their particular mining sites, allowing them to adapt to future conditions.</t>
+  </si>
+  <si>
+    <r>
+      <t>Remote marine regions comprise a high fraction of Earth’s surface, but measurements over these locations remain scarce. Here we use airborne data during 15 vertical spiral soundings over Bermuda during the NASA Aerosol Cloud meTeorology Interactions over the western ATlantic Experiment (ACTIVATE) to understand the vertical structure of trace gases, aerosol particles, and meteorological variables over 1000 km offshore of the U.S. East Coast. Results reveal (i) significant differences in vertical profiles of variables between three different air mass source categories (North America, Ocean, Caribbean/North Africa) such as with the strongest (weakest) pollution signature from North America (Ocean) categories and a pronounced coarse aerosol signature in the free troposphere (FT) and reduced aerosol hygroscopicity in air masses from the Caribbean/North Africa; (ii) North American air generally has the highest levels of CO, CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, submicron particle number concentration, AMS mass, and highest organic mass fraction; (iii) Ocean air masses have the highest relative amount of nitrate, non-sea-salt sulfate, and oxalate, which are key acidic species participating in chloride depletion; (iv) considerable vertical heterogeneity for almost all variables with altitude, including higher O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and submicrometer particle concentrations with altitude, suggestive that the FT is a potential contributor of both constituents in the marine boundary layer; and (v) bimodal particle size distributions for each air mass type suggestive of cloud processing effects (i.e., Hoppel minimum). This study demonstrates the sensitivity of the remote marine vertical structure to different air mass sources and the significant vertical variability in atmospheric trace gases and aerosol constituents.</t>
+    </r>
+  </si>
+  <si>
+    <t>Composite analyses of NOAA satellite-based outgoing longwave radiation data and ERA5 reanalysis data for nearly six solar maximum periods confirm the existence of a response of tropical convection and precipitation to short-term (mainly 27-day) solar ultraviolet variations, which has been suggested by previous research. After a solar UV peak, the response consists of an increase in average convection and precipitation in the equatorial Indian ocean and a decrease in the western and central tropical Pacific, with maximum amplitude at a lag of 4 to 8 days. The opposite occurs following short- term solar UV minima. The observed responses are most detectable when the Madden-Julian oscillation (MJO) is active and appear to be related to a reduced ability of the MJO to propagate across the Maritime Continent barrier following solar UV peaks relative to UV minima. Support for this response appears via a phase count of individual phases, which show an increased occurrence rate of early MJO phases, associated with increased convection over the Indian Ocean, and a decreased rate of later MJO phases, associated with increased convection over the Pacific Ocean, following short-term solar peaks. The overall behavior appears to be consistent between individual solar cycles, and is detectable at least as far back as 1959.  Additionally, the phases which appear to be influenced by solar activity have been found in previous work to affect the position of the storm track and jet stream over the Northern Pacific, presenting an intriguing possibility for future work in this area.</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1mEFGDXpIonE75IJIjvefzxDdmdlLU0H3/edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverse modeling has long been used in the field of hydrology to estimate causal parameters that are difficult to observe from their easier to measure effects. In this study, we aim to use a convolutional neural network (CNN) to predict the causal parameter hydraulic conductivity from the resulting water table depth. To achieve this, we create training images by running an ensemble which varies hydraulic conductivity to establish its relationship with water table depth. We use the physical groundwater-surface water model ParFlow to represent a domain across the majority of the contiguous United States. Next, a CNN uses water table depth, along with additional variables such as elevation, slope and long term recharge, to predict hydraulic conductivity. Finally, the CNN generated hydraulic conductivity fields are run through ParFlow and the resulting water table depth fields are compared to the originals. Our results show that we can reproduce hydraulic conductivity fields for various out of sample cases, as well as get excellent matches between the resulting water table depth fields. Additionally, the CNN accurately reflects physical relationships by its shifting of the hydraulic conductivity prediction according to increases and decreases in long term recharge. In this study we also use the model performance to address the strengths and limitations of this approach and when it should and should not be used. This framework outlines a powerful approach for parameter inversion which is especially impactful for computationally expensive physical hydrologic models like ParFlow, for which it is difficult to use traditional methods.  </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1W-sjNJqZSGDiMgUmpaMyrhf0QPhRJWSj/edit</t>
+  </si>
+  <si>
+    <r>
+      <t>Arizona, a rapidly growing state in the southwestern U.S., faces ozone pollution challenges, with several counties (including Yuma and Maricopa counties) classified as O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nonattainment areas. Previous studies in the region have reported pollution transport from neighboring states impacting O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> levels. In this study, we use five-year (2017-2021) hourly back-trajectories and O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> concentration data for concentration-weighted trajectory (CWT) analysis to identify transport pathways and potential source regions of O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at six monitoring sites representing both rural and urban areas within Arizona. We divide the data into five seasons (winter, spring, dry summer, monsoon summer , fall) to examine variations in O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> concentration and transport across sites and seasons. The highest mean O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> concentrations occur during spring (37-49 ppb), dry summer (39-51 ppb), and monsoon summer (34-49 ppb), while winter (19-41 ppb) exhibits the lowest seasonal mean. The CWT results reveal that high O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> concentrations (≥ 40 ppb) in Arizona, with the exception of Phoenix and Tucson sites, are influenced significantly by regional and international transport, especially in spring and dry summer. The major potential source areas (excluding the Phoenix and Tucson sites) are predominantly located outside Arizona. This study highlights the critical role of pollution transport in influencing O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> variability within Arizona and will be valuable in shaping pollution control strategies in the future.</t>
+    </r>
+  </si>
+  <si>
+    <t>Various entities operate streamgages and conduct stream measurements in Arizona, but a lack of collaboration means their collective locations are unknown. This drastically reduces the efficiency and accuracy of gathering information for streamflow data. The Arizona Streamgage Catalog (AZStreamCAT) project is developing an interactive, online publicly-available catalog that provides an overview of the quantity and location of virtually all streamgages and streamflow measurement locations in Arizona. Streamgage and streamflow measurement locations and associated metadata were obtained from a variety of government, private consultant, and non-governmental organizations. Measurement locations are plotted using ArcGIS Pro, and include the following metadata: agency, station ID and name, watershed, county, AMA or INA, lat/long/elev, period of record, gage type, status (active or inactive), measurement frequency, and a website link. Precipitation measurement locations will be added as a separate layer, and we are also beginning to expand the map into New Mexico. The catalog can provide information to stakeholders, increase effective management of resources, and help establish protocols for future data collection. This poster will consist of a live beta demonstration and will allow interested users to explore the product and provide feedback for its improvement.</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1IpAIFYjy8thG_a1sW2zivzEtna33luwW/edit</t>
+  </si>
+  <si>
+    <t>Acke 1</t>
+  </si>
+  <si>
+    <t>Ajayi 2</t>
+  </si>
+  <si>
+    <t>Betito 3</t>
+  </si>
+  <si>
+    <t>Du 4</t>
+  </si>
+  <si>
+    <t>Giralte 5</t>
+  </si>
+  <si>
+    <t>Guo 6</t>
+  </si>
+  <si>
+    <t>Harper 7</t>
+  </si>
+  <si>
+    <t>Hasenstab 8</t>
+  </si>
+  <si>
+    <t>Headley 9</t>
+  </si>
+  <si>
+    <t>Hoopes 10</t>
+  </si>
+  <si>
+    <t>Ma 11</t>
+  </si>
+  <si>
+    <t>Makgoale 12</t>
+  </si>
+  <si>
+    <t>Mirrezaei 13</t>
+  </si>
+  <si>
+    <t>Moeschl 14</t>
+  </si>
+  <si>
+    <t>Natale 15</t>
+  </si>
+  <si>
+    <t>Zhong 16</t>
+  </si>
+  <si>
+    <t>Nicholas 17</t>
+  </si>
+  <si>
+    <t>Puente 18</t>
+  </si>
+  <si>
+    <t>Roberts IV 19</t>
+  </si>
+  <si>
+    <t>Smith 20</t>
+  </si>
+  <si>
+    <t>Sterling 21</t>
+  </si>
+  <si>
+    <t>Tadych 22</t>
+  </si>
+  <si>
+    <t>Team 23</t>
+  </si>
+  <si>
+    <t>Triplett 24</t>
+  </si>
+  <si>
+    <t>Wilson 25</t>
+  </si>
+  <si>
+    <t>Xu 26</t>
+  </si>
+  <si>
+    <t>Yousefi Sohi 27</t>
+  </si>
+  <si>
+    <t>Yurek 28</t>
+  </si>
+  <si>
+    <t>Zandi 29</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1824,11 +2083,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1892,12 +2146,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1977,6 +2225,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2018,32 +2272,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2055,23 +2308,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2291,13 +2544,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE991"/>
+  <dimension ref="A1:AE994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2383,18 +2636,18 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -2403,40 +2656,42 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>283</v>
+        <v>326</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2445,40 +2700,42 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L3" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2487,40 +2744,40 @@
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>285</v>
+        <v>327</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>371</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2529,42 +2786,42 @@
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>286</v>
+      <c r="K5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>164</v>
+        <v>133</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2573,42 +2830,42 @@
         <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>287</v>
+        <v>182</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2617,40 +2874,42 @@
         <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2659,42 +2918,42 @@
         <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>289</v>
+        <v>181</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -2703,40 +2962,42 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>290</v>
+        <v>189</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -2745,44 +3006,44 @@
         <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>291</v>
+        <v>190</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="2" t="s">
-        <v>75</v>
+      <c r="N10" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -2791,38 +3052,40 @@
         <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="2"/>
+      <c r="L11" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -2831,40 +3094,42 @@
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="M12" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M12" s="12"/>
       <c r="N12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -2873,38 +3138,40 @@
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>294</v>
+        <v>201</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -2913,168 +3180,170 @@
         <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>264</v>
+        <v>194</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>381</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>296</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>297</v>
+        <v>185</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>298</v>
+        <v>203</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -3083,42 +3352,44 @@
         <v>20</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="M18" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="13"/>
       <c r="N18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -3127,40 +3398,42 @@
         <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>300</v>
+        <v>197</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>178</v>
+        <v>386</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -3169,40 +3442,42 @@
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>301</v>
+        <v>198</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -3211,38 +3486,40 @@
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>180</v>
+        <v>388</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -3251,42 +3528,44 @@
         <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>303</v>
+        <v>328</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>366</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>181</v>
+        <v>389</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -3295,329 +3574,330 @@
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>304</v>
+        <v>180</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>392</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N26" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>185</v>
+        <v>393</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="N27" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" s="33">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="C29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="P29" s="33">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="P30" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -3626,225 +3906,229 @@
         <v>23</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="P31" s="33">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="24">
+        <v>70</v>
+      </c>
+      <c r="P31" s="31">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="33">
-        <v>0.4375</v>
+        <v>108</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="P32" s="31">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>62</v>
+      <c r="K33" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="P33" s="33">
-        <v>0.54166666666666663</v>
+        <v>303</v>
+      </c>
+      <c r="P33" s="31">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
       <c r="B34" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P34" s="31">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="P34" s="33">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="P35" s="33">
-        <v>0.5625</v>
+      <c r="P35" s="31">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -3853,183 +4137,176 @@
         <v>22</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="N36" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="O36" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="P36" s="33">
-        <v>0.57291666666666663</v>
+        <v>301</v>
+      </c>
+      <c r="P36" s="31">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>46</v>
+        <v>114</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M37" s="11"/>
+        <v>127</v>
+      </c>
       <c r="N37" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P37" s="33">
-        <v>0.625</v>
+        <v>300</v>
+      </c>
+      <c r="P37" s="31">
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="11"/>
+        <v>124</v>
+      </c>
       <c r="N38" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="P38" s="33">
-        <v>0.63541666666666663</v>
+        <v>299</v>
+      </c>
+      <c r="P38" s="31">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="N39" s="9"/>
       <c r="O39" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="P39" s="33">
-        <v>0.64583333333333337</v>
+        <v>308</v>
+      </c>
+      <c r="P39" s="31">
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -4038,189 +4315,283 @@
         <v>17</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="L40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M40" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="M40" s="10"/>
       <c r="N40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P40" s="33">
-        <v>0.65625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="23"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P40" s="31">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P41" s="31">
+        <v>0.63541666666666663</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="17"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="22"/>
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>38</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="P42" s="31">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="17"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="22"/>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="P43" s="31">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="22"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="22"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="22"/>
     </row>
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="3"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="22"/>
-    </row>
-    <row r="46" spans="1:16" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="3"/>
+      <c r="P45" s="21"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="3"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="24"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="17"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="16"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="21"/>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="6"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="3"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="22"/>
+      <c r="P47" s="21"/>
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="18"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="3"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="22"/>
-    </row>
-    <row r="49" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
+      <c r="P48" s="21"/>
+    </row>
+    <row r="49" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="23"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="17"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="3"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="22"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="16"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="27"/>
     </row>
     <row r="50" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="3"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="16"/>
-      <c r="N50" s="9"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="3"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
@@ -4232,18 +4603,17 @@
       <c r="H51" s="2"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="6"/>
+      <c r="K51" s="17"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="11"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="8"/>
+      <c r="P51" s="21"/>
     </row>
     <row r="52" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="E52" s="2"/>
+      <c r="C52" s="16"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
@@ -4251,27 +4621,25 @@
       <c r="J52" s="3"/>
       <c r="K52" s="6"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="11"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="8"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="21"/>
     </row>
     <row r="53" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="2"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="15"/>
+      <c r="N53" s="9"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="8"/>
     </row>
     <row r="54" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
@@ -4285,43 +4653,79 @@
       <c r="J54" s="3"/>
       <c r="K54" s="6"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="11"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="3"/>
+      <c r="O54" s="2"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="J55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="J56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="J57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="8"/>
     </row>
     <row r="58" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="J58" s="2"/>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="J59" s="2"/>
       <c r="L59" s="2"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="J60" s="2"/>
       <c r="L60" s="2"/>
       <c r="O60" s="2"/>
@@ -4336,63 +4740,34 @@
       <c r="L62" s="2"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:16" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="17"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="28"/>
-    </row>
-    <row r="64" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="2"/>
+    <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="J63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="J64" s="2"/>
+      <c r="L64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="17"/>
-      <c r="N65" s="2"/>
+    </row>
+    <row r="65" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="J65" s="2"/>
+      <c r="L65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="22"/>
-    </row>
-    <row r="66" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+    </row>
+    <row r="66" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="8"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="16"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="27"/>
     </row>
     <row r="67" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
@@ -4404,9 +4779,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="6"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="11"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="3"/>
+      <c r="O67" s="2"/>
       <c r="P67" s="8"/>
     </row>
     <row r="68" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4418,10 +4793,10 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="16"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="22"/>
+      <c r="P68" s="21"/>
     </row>
     <row r="69" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
@@ -4431,11 +4806,12 @@
       <c r="H69" s="2"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="18"/>
+      <c r="K69" s="6"/>
       <c r="L69" s="3"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="22"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="8"/>
     </row>
     <row r="70" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
@@ -4445,11 +4821,12 @@
       <c r="H70" s="2"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="18"/>
+      <c r="K70" s="6"/>
       <c r="L70" s="3"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="22"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="8"/>
     </row>
     <row r="71" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
@@ -4459,11 +4836,11 @@
       <c r="H71" s="2"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="18"/>
+      <c r="K71" s="6"/>
       <c r="L71" s="3"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="22"/>
+      <c r="P71" s="21"/>
     </row>
     <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
@@ -4472,12 +4849,12 @@
       <c r="G72" s="3"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="6"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="3"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-      <c r="P72" s="22"/>
+      <c r="P72" s="21"/>
     </row>
     <row r="73" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
@@ -4487,11 +4864,11 @@
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="3"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="22"/>
+      <c r="P73" s="21"/>
     </row>
     <row r="74" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
@@ -4501,44 +4878,71 @@
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="18"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="7"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="8"/>
+      <c r="P74" s="21"/>
     </row>
     <row r="75" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="18"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="2"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="3"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="J76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="21"/>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="16"/>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="J77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="P76" s="21"/>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="J78" s="2"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="17"/>
       <c r="L78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="8"/>
     </row>
     <row r="79" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="J79" s="2"/>
@@ -9105,50 +9509,67 @@
       <c r="L991" s="2"/>
       <c r="O991" s="2"/>
     </row>
+    <row r="992" spans="10:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J992" s="2"/>
+      <c r="L992" s="2"/>
+      <c r="O992" s="2"/>
+    </row>
+    <row r="993" spans="10:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J993" s="2"/>
+      <c r="L993" s="2"/>
+      <c r="O993" s="2"/>
+    </row>
+    <row r="994" spans="10:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J994" s="2"/>
+      <c r="L994" s="2"/>
+      <c r="O994" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O53">
-      <sortCondition ref="C1:C53"/>
+  <autoFilter ref="A1:O56" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O56">
+      <sortCondition ref="C1:C56"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N21" r:id="rId1" xr:uid="{1E992416-B1EB-E644-83DA-99480EB8AFDE}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{73AC163D-0EDE-C54F-AA6F-C8B106397D50}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{BAE4BA99-5E79-2242-A737-E2ED89EDD850}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{5DF72E08-B676-8741-855D-FB7C535D8C4E}"/>
-    <hyperlink ref="K5" r:id="rId5" xr:uid="{26158BEB-7871-0C42-96FD-370D472B2368}"/>
-    <hyperlink ref="K6" r:id="rId6" xr:uid="{37EB6B21-1117-924B-9C86-AAFCB1164EFC}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{11F7EEDA-EF86-5344-A3A0-F4B241F65C97}"/>
-    <hyperlink ref="K8" r:id="rId8" xr:uid="{42A738A1-9F01-0D46-9670-39CF040035EE}"/>
-    <hyperlink ref="K9" r:id="rId9" xr:uid="{17EB67DE-8A11-5742-8F94-5739D838F62E}"/>
-    <hyperlink ref="K10" r:id="rId10" xr:uid="{0918C5C5-5288-8B44-94AD-ADA8A102126E}"/>
-    <hyperlink ref="K11" r:id="rId11" xr:uid="{09411DA2-D43A-454A-A8B3-AA738FA7AAFA}"/>
-    <hyperlink ref="K12" r:id="rId12" xr:uid="{D12EFD9D-7739-8A4B-B168-9CE0D4DD47D5}"/>
-    <hyperlink ref="K13" r:id="rId13" xr:uid="{389E2CD4-C23B-7442-98A2-6F7B4A4608F5}"/>
-    <hyperlink ref="K14" r:id="rId14" xr:uid="{2BC8B1CA-006F-0F46-A92F-59265FA2EBE3}"/>
-    <hyperlink ref="K15" r:id="rId15" xr:uid="{4B26A286-334A-704B-8895-978448BF9E55}"/>
-    <hyperlink ref="K16" r:id="rId16" xr:uid="{673A316D-A2D3-1F41-AF80-5D257184969D}"/>
-    <hyperlink ref="K17" r:id="rId17" xr:uid="{F2BD78EA-F065-1E4E-8186-633E7FEEE811}"/>
-    <hyperlink ref="K18" r:id="rId18" xr:uid="{CB6AE6D2-1D93-3B4D-B20E-E2E052C9E17F}"/>
-    <hyperlink ref="K19" r:id="rId19" xr:uid="{FC641203-2581-554F-B438-8660F3F5D981}"/>
-    <hyperlink ref="K20" r:id="rId20" xr:uid="{414145E0-C657-2544-BC02-5F2766B37C17}"/>
-    <hyperlink ref="K21" r:id="rId21" xr:uid="{970FD8FD-6765-B04F-BDBD-0453D1E29938}"/>
-    <hyperlink ref="K22" r:id="rId22" xr:uid="{8E77A7BE-9B7A-3B49-802C-0DE5178EF9D3}"/>
-    <hyperlink ref="K23" r:id="rId23" xr:uid="{3A12A698-1BED-0D44-894C-EEAE0C0E6929}"/>
-    <hyperlink ref="K24" r:id="rId24" xr:uid="{EA69CBEF-593A-AC49-975B-B7264599A0BB}"/>
-    <hyperlink ref="K25" r:id="rId25" xr:uid="{7EEA35AF-AF68-3D4F-9043-D0D85241E4E3}"/>
-    <hyperlink ref="K26" r:id="rId26" xr:uid="{D32E7D6C-F1AA-5245-A9CF-23DBC3D04BCA}"/>
-    <hyperlink ref="K27" r:id="rId27" xr:uid="{F781CFBA-1EBA-D44E-AFCC-DDB7965BF163}"/>
-    <hyperlink ref="N11" r:id="rId28" xr:uid="{34A14943-E87D-3940-A3F5-5FE9956764FE}"/>
-    <hyperlink ref="N7" r:id="rId29" xr:uid="{45B25698-0542-5D4C-B1A4-828932916D21}"/>
-    <hyperlink ref="K30" r:id="rId30" xr:uid="{8403283C-F6A2-574C-91D3-463AEA9D0676}"/>
-    <hyperlink ref="K34" r:id="rId31" xr:uid="{847CF353-1219-E34E-A174-24028B9E549C}"/>
-    <hyperlink ref="K36" r:id="rId32" xr:uid="{DB8A57A9-AE1E-BB48-8F7B-DD71AF1DDAD7}"/>
-    <hyperlink ref="K39" r:id="rId33" xr:uid="{E344C7B6-F392-104C-A524-552C9CD6EB59}"/>
+    <hyperlink ref="K33" r:id="rId1" xr:uid="{8403283C-F6A2-574C-91D3-463AEA9D0676}"/>
+    <hyperlink ref="K37" r:id="rId2" xr:uid="{847CF353-1219-E34E-A174-24028B9E549C}"/>
+    <hyperlink ref="K39" r:id="rId3" xr:uid="{DB8A57A9-AE1E-BB48-8F7B-DD71AF1DDAD7}"/>
+    <hyperlink ref="K42" r:id="rId4" xr:uid="{E344C7B6-F392-104C-A524-552C9CD6EB59}"/>
+    <hyperlink ref="N26" r:id="rId5" xr:uid="{4474B31E-15ED-CB4E-99AE-9146DB5EEFE4}"/>
+    <hyperlink ref="N27" r:id="rId6" xr:uid="{B60FC10D-866A-3241-ADB4-F2929C45CD01}"/>
+    <hyperlink ref="N3" r:id="rId7" xr:uid="{EF35710E-9469-7541-9C38-48E9C21DB74B}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{563305EC-8EE4-9D48-8879-6DB546E0BCA5}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{DF96D38B-9295-E941-BBE6-0C52ECBD5D58}"/>
+    <hyperlink ref="K2" r:id="rId10" xr:uid="{3A20965F-800C-4547-92D1-BF7325746601}"/>
+    <hyperlink ref="K3" r:id="rId11" xr:uid="{9BAB7CC1-0DFD-7942-8B18-5DC59315263E}"/>
+    <hyperlink ref="K5" r:id="rId12" xr:uid="{AE6C7338-3F9F-DE4F-A3BF-BB708F00420F}"/>
+    <hyperlink ref="K6" r:id="rId13" xr:uid="{13A47C58-5ED3-F141-9F06-95D0988E98CA}"/>
+    <hyperlink ref="K7" r:id="rId14" xr:uid="{7B06D264-6EF7-9646-92B7-B8A031158B38}"/>
+    <hyperlink ref="K8" r:id="rId15" xr:uid="{0BDAE0C9-D72C-4249-8E49-396630F8B8B0}"/>
+    <hyperlink ref="K9" r:id="rId16" xr:uid="{BAAD0FC0-B224-C74D-86A9-E57E5F20C4AF}"/>
+    <hyperlink ref="K10" r:id="rId17" xr:uid="{1E09CB59-7AB5-0B44-89E3-2E342D181E43}"/>
+    <hyperlink ref="K11" r:id="rId18" xr:uid="{66F622E3-3560-AD41-AE61-A9DAA345FF2E}"/>
+    <hyperlink ref="K12" r:id="rId19" xr:uid="{6D5BAE3D-AEC8-BC40-97A3-C9E1CE12E181}"/>
+    <hyperlink ref="K13" r:id="rId20" xr:uid="{023B3ED8-1010-AE4A-86CA-CBFC7A6DE3FA}"/>
+    <hyperlink ref="K14" r:id="rId21" xr:uid="{B655E6DC-A0D2-3B46-8271-B6F2C24296D1}"/>
+    <hyperlink ref="K15" r:id="rId22" xr:uid="{588B9961-3DFE-9143-9213-6EFCF79FC71D}"/>
+    <hyperlink ref="K16" r:id="rId23" xr:uid="{48F69B9D-701A-7C4E-9A84-BABA8A41CF89}"/>
+    <hyperlink ref="K17" r:id="rId24" xr:uid="{4A1EE126-7D7C-6944-B93C-4470C08C3FFC}"/>
+    <hyperlink ref="K18" r:id="rId25" xr:uid="{CE073C01-8B4E-C84A-BC05-F1A007BBF477}"/>
+    <hyperlink ref="K19" r:id="rId26" xr:uid="{E3B6F2A4-955F-5748-AC2E-D74BDFB2FB3C}"/>
+    <hyperlink ref="K20" r:id="rId27" xr:uid="{4E85E15D-5EB3-DA4E-A639-6BEB6AC7C1E8}"/>
+    <hyperlink ref="K21" r:id="rId28" xr:uid="{77CD2CD7-D9E8-6C40-9F23-9ABB05BEF71E}"/>
+    <hyperlink ref="K23" r:id="rId29" xr:uid="{6A6D91A6-C509-3547-8AAB-130885B18460}"/>
+    <hyperlink ref="K24" r:id="rId30" xr:uid="{C674998E-F657-1247-86B3-213AA9521633}"/>
+    <hyperlink ref="K26" r:id="rId31" xr:uid="{17337AC4-9E54-B044-A73B-1B37C4991A5C}"/>
+    <hyperlink ref="K27" r:id="rId32" xr:uid="{D7F48E36-4D91-9F4B-BA02-22992B848781}"/>
+    <hyperlink ref="K28" r:id="rId33" xr:uid="{78B062FA-E813-6B42-8D03-DBD660295864}"/>
+    <hyperlink ref="K29" r:id="rId34" xr:uid="{FD9749DB-253E-B440-917E-F8530F074992}"/>
+    <hyperlink ref="K30" r:id="rId35" xr:uid="{DAAFD31B-F8E2-E04B-A7E5-AA5C02989F24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId34"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -9199,149 +9620,149 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>0.39583333333333331</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="33">
+      <c r="C18" s="31">
         <v>0.40625</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="33">
+      <c r="C19" s="31">
         <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="33">
+      <c r="C21" s="31">
         <v>0.4375</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="33">
+      <c r="C22" s="31">
         <v>0.44791666666666669</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="33">
+      <c r="C23" s="31">
         <v>0.45833333333333331</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9351,246 +9772,246 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <v>0.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="33">
+      <c r="C25" s="31">
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="33">
+      <c r="C26" s="31">
         <v>0.55208333333333337</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="33">
+      <c r="C27" s="31">
         <v>0.5625</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="33">
+      <c r="C28" s="31">
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="33">
+      <c r="C29" s="31">
         <v>0.58333333333333337</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="33">
+      <c r="C30" s="31">
         <v>0.625</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="33">
+      <c r="C31" s="31">
         <v>0.63541666666666663</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="33">
+      <c r="C32" s="31">
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="33">
+      <c r="C33" s="31">
         <v>0.65625</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="33">
+      <c r="C34" s="31">
         <v>0.66666666666666663</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD1DD0-F979-D94F-A8AD-9920B879659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54841DC2-E4ED-884C-BB48-74EF34259879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="740" windowWidth="24960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1960,91 +1960,91 @@
     <t>https://docs.google.com/document/d/1IpAIFYjy8thG_a1sW2zivzEtna33luwW/edit</t>
   </si>
   <si>
-    <t>Acke 1</t>
-  </si>
-  <si>
-    <t>Ajayi 2</t>
-  </si>
-  <si>
-    <t>Betito 3</t>
-  </si>
-  <si>
-    <t>Du 4</t>
-  </si>
-  <si>
-    <t>Giralte 5</t>
-  </si>
-  <si>
-    <t>Guo 6</t>
-  </si>
-  <si>
-    <t>Harper 7</t>
-  </si>
-  <si>
-    <t>Hasenstab 8</t>
-  </si>
-  <si>
-    <t>Headley 9</t>
-  </si>
-  <si>
-    <t>Hoopes 10</t>
-  </si>
-  <si>
-    <t>Ma 11</t>
-  </si>
-  <si>
-    <t>Makgoale 12</t>
-  </si>
-  <si>
-    <t>Mirrezaei 13</t>
-  </si>
-  <si>
-    <t>Moeschl 14</t>
-  </si>
-  <si>
-    <t>Natale 15</t>
-  </si>
-  <si>
-    <t>Zhong 16</t>
-  </si>
-  <si>
-    <t>Nicholas 17</t>
-  </si>
-  <si>
-    <t>Puente 18</t>
-  </si>
-  <si>
-    <t>Roberts IV 19</t>
-  </si>
-  <si>
-    <t>Smith 20</t>
-  </si>
-  <si>
-    <t>Sterling 21</t>
-  </si>
-  <si>
-    <t>Tadych 22</t>
-  </si>
-  <si>
-    <t>Team 23</t>
-  </si>
-  <si>
-    <t>Triplett 24</t>
-  </si>
-  <si>
-    <t>Wilson 25</t>
-  </si>
-  <si>
-    <t>Xu 26</t>
-  </si>
-  <si>
-    <t>Yousefi Sohi 27</t>
-  </si>
-  <si>
-    <t>Yurek 28</t>
-  </si>
-  <si>
-    <t>Zandi 29</t>
+    <t>Acke P1</t>
+  </si>
+  <si>
+    <t>Ajayi P2</t>
+  </si>
+  <si>
+    <t>Betito P3</t>
+  </si>
+  <si>
+    <t>Du P4</t>
+  </si>
+  <si>
+    <t>Giralte P5</t>
+  </si>
+  <si>
+    <t>Guo P6</t>
+  </si>
+  <si>
+    <t>Harper P7</t>
+  </si>
+  <si>
+    <t>Hasenstab P8</t>
+  </si>
+  <si>
+    <t>Headley P9</t>
+  </si>
+  <si>
+    <t>Hoopes P10</t>
+  </si>
+  <si>
+    <t>Ma P11</t>
+  </si>
+  <si>
+    <t>Makgoale P12</t>
+  </si>
+  <si>
+    <t>Mirrezaei P13</t>
+  </si>
+  <si>
+    <t>Moeschl P14</t>
+  </si>
+  <si>
+    <t>Natale P15</t>
+  </si>
+  <si>
+    <t>Zhong P16</t>
+  </si>
+  <si>
+    <t>Nicholas P17</t>
+  </si>
+  <si>
+    <t>Puente P18</t>
+  </si>
+  <si>
+    <t>Roberts IV P19</t>
+  </si>
+  <si>
+    <t>Smith P20</t>
+  </si>
+  <si>
+    <t>Sterling P21</t>
+  </si>
+  <si>
+    <t>Tadych P22</t>
+  </si>
+  <si>
+    <t>Team P23</t>
+  </si>
+  <si>
+    <t>Triplett P24</t>
+  </si>
+  <si>
+    <t>Wilson P25</t>
+  </si>
+  <si>
+    <t>Xu P26</t>
+  </si>
+  <si>
+    <t>Yousefi Sohi P27</t>
+  </si>
+  <si>
+    <t>Yurek P28</t>
+  </si>
+  <si>
+    <t>Zandi P29</t>
   </si>
 </sst>
 </file>
@@ -2547,10 +2547,10 @@
   <dimension ref="A1:AE994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54841DC2-E4ED-884C-BB48-74EF34259879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF682F7F-8A88-3441-AAEE-286AF0A8F9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="396">
   <si>
     <t>RSVP</t>
   </si>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1S8LXsGOY1GOlfAWe-8Ee-THGRHysJVtz</t>
-  </si>
-  <si>
-    <t>Poster Session 6</t>
   </si>
   <si>
     <t>Arizona is an interesting case study for groundwater management due to the complexity of groundwater legislation, land use, and access to surface water.  For this study, we zoom into areas with different land use, groundwater management, and social or legal controversies to determine groundwater trends and drought responses of these areas.  We downloaded data from groundwater monitoring wells for the period 2000-2022 and filtered to include wells with 15 years of data or more.  Linear trends, anomalies, and maximum drawdown for each study area were calculated.  State averaged Palmer Drought Severity Index was used to determine severe droughts.  Our results show that urban regions of Tucson and the Phoenix are experiencing less severe drought responses and increasing groundwater levels since 2000.  Flagstaff did not show any relationship to drought, but has experienced significant groundwater declines of greater than 200 feet.  Yuma, a highly agricultural region with direct access to Colorado River water, shows the least severe drawdown but slightly decreasing groundwater levels over time.  However, high priority groundwater subbasins identified in the Arizona Governor’s Water Policy Council Report (Ranegrass, Gila, and Wilcox) showed the largest decreases in groundwater and the worst drawdown during severe droughts.  Wilcox recorded a staggering 26-foot drawdown during the 2021 drought.  These areas are predominantly groundwater dependent but have had increased agricultural activity in recent years, having concerning implications for future sustainability.  Overall, our results highlight the importance of studying groundwater dynamics at smaller scales, enabling more tailored and effective groundwater management decisions.</t>
@@ -2547,10 +2544,10 @@
   <dimension ref="A1:AE994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2644,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -2656,29 +2653,29 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>358</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>359</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P2" s="8"/>
     </row>
@@ -2691,7 +2688,7 @@
         <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2703,7 +2700,7 @@
         <v>161</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>96</v>
@@ -2715,13 +2712,13 @@
         <v>226</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2732,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2744,22 +2741,22 @@
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>364</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>365</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="2" t="s">
@@ -2777,7 +2774,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2789,7 +2786,7 @@
         <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>104</v>
@@ -2801,14 +2798,14 @@
         <v>214</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -2821,7 +2818,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2833,7 +2830,7 @@
         <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>167</v>
@@ -2845,13 +2842,13 @@
         <v>208</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,7 +2862,7 @@
         <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2877,7 +2874,7 @@
         <v>163</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>178</v>
@@ -2889,13 +2886,13 @@
         <v>228</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,7 +2906,7 @@
         <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2921,7 +2918,7 @@
         <v>148</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>166</v>
@@ -2933,14 +2930,14 @@
         <v>207</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P8" s="8"/>
     </row>
@@ -2953,7 +2950,7 @@
         <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -2965,7 +2962,7 @@
         <v>154</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>172</v>
@@ -2977,13 +2974,13 @@
         <v>215</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2997,7 +2994,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -3009,7 +3006,7 @@
         <v>155</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>172</v>
@@ -3021,14 +3018,14 @@
         <v>216</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P10" s="8"/>
     </row>
@@ -3043,7 +3040,7 @@
         <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -3055,7 +3052,7 @@
         <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>165</v>
@@ -3067,13 +3064,13 @@
         <v>205</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3085,7 +3082,7 @@
         <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -3097,7 +3094,7 @@
         <v>156</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>104</v>
@@ -3109,14 +3106,14 @@
         <v>219</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P12" s="8"/>
     </row>
@@ -3126,10 +3123,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -3141,7 +3138,7 @@
         <v>162</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>177</v>
@@ -3153,13 +3150,13 @@
         <v>227</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,10 +3165,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -3183,7 +3180,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>174</v>
@@ -3195,13 +3192,13 @@
         <v>220</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3210,10 +3207,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -3225,7 +3222,7 @@
         <v>153</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>171</v>
@@ -3237,13 +3234,13 @@
         <v>213</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,7 +3254,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -3269,7 +3266,7 @@
         <v>152</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>170</v>
@@ -3281,13 +3278,13 @@
         <v>211</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3299,7 +3296,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -3311,7 +3308,7 @@
         <v>164</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>98</v>
@@ -3323,13 +3320,13 @@
         <v>229</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3343,7 +3340,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -3355,7 +3352,7 @@
         <v>38</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>166</v>
@@ -3367,7 +3364,7 @@
         <v>218</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="2" t="s">
@@ -3389,7 +3386,7 @@
         <v>142</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -3401,7 +3398,7 @@
         <v>159</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>95</v>
@@ -3413,7 +3410,7 @@
         <v>223</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="2" t="s">
@@ -3433,7 +3430,7 @@
         <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -3445,7 +3442,7 @@
         <v>160</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>175</v>
@@ -3457,7 +3454,7 @@
         <v>224</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>69</v>
@@ -3477,7 +3474,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -3489,7 +3486,7 @@
         <v>57</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>104</v>
@@ -3501,13 +3498,13 @@
         <v>212</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3516,10 +3513,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -3528,29 +3525,29 @@
         <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P22" s="8"/>
     </row>
@@ -3565,7 +3562,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -3577,7 +3574,7 @@
         <v>147</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>95</v>
@@ -3589,13 +3586,13 @@
         <v>206</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3607,7 +3604,7 @@
         <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -3619,7 +3616,7 @@
         <v>151</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>169</v>
@@ -3631,13 +3628,13 @@
         <v>210</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3646,10 +3643,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -3658,22 +3655,22 @@
         <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K25" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L25" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>363</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>69</v>
@@ -3689,7 +3686,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -3701,7 +3698,7 @@
         <v>37</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>176</v>
@@ -3713,13 +3710,13 @@
         <v>225</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3731,7 +3728,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -3743,7 +3740,7 @@
         <v>49</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>99</v>
@@ -3756,10 +3753,10 @@
       </c>
       <c r="L27" s="22"/>
       <c r="N27" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3771,7 +3768,7 @@
         <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -3783,7 +3780,7 @@
         <v>150</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>168</v>
@@ -3795,7 +3792,7 @@
         <v>209</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>69</v>
@@ -3813,7 +3810,7 @@
         <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -3825,7 +3822,7 @@
         <v>157</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>170</v>
@@ -3837,13 +3834,13 @@
         <v>221</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,19 +3852,19 @@
         <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>158</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>168</v>
@@ -3879,19 +3876,19 @@
         <v>222</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>28</v>
@@ -3937,8 +3934,8 @@
       <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="2">
-        <v>28</v>
+      <c r="B32" s="3">
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -3959,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>108</v>
@@ -3974,7 +3971,7 @@
         <v>69</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P32" s="31">
         <v>0.40625</v>
@@ -3982,8 +3979,8 @@
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-      <c r="B33" s="2">
-        <v>29</v>
+      <c r="B33" s="3">
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>83</v>
@@ -4019,7 +4016,7 @@
         <v>69</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P33" s="31">
         <v>0.41666666666666669</v>
@@ -4030,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>66</v>
@@ -4066,7 +4063,7 @@
         <v>69</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P34" s="31">
         <v>0.42708333333333331</v>
@@ -4076,8 +4073,8 @@
       <c r="A35" s="23">
         <v>1</v>
       </c>
-      <c r="B35" s="2">
-        <v>31</v>
+      <c r="B35" s="3">
+        <v>34</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>73</v>
@@ -4121,8 +4118,8 @@
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="2">
-        <v>32</v>
+      <c r="B36" s="3">
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>86</v>
@@ -4158,7 +4155,7 @@
         <v>69</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P36" s="31">
         <v>0.54166666666666663</v>
@@ -4167,7 +4164,7 @@
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>84</v>
@@ -4203,7 +4200,7 @@
         <v>69</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P37" s="31">
         <v>0.55208333333333337</v>
@@ -4211,8 +4208,8 @@
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="2">
-        <v>34</v>
+      <c r="B38" s="3">
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>81</v>
@@ -4248,7 +4245,7 @@
         <v>69</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P38" s="31">
         <v>0.5625</v>
@@ -4256,8 +4253,8 @@
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="2">
-        <v>35</v>
+      <c r="B39" s="3">
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>81</v>
@@ -4287,11 +4284,11 @@
         <v>217</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N39" s="9"/>
       <c r="O39" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P39" s="31">
         <v>0.57291666666666663</v>
@@ -4300,7 +4297,7 @@
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>40</v>
@@ -4337,7 +4334,7 @@
         <v>69</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P40" s="31">
         <v>0.625</v>
@@ -4347,8 +4344,8 @@
       <c r="A41" s="2">
         <v>1</v>
       </c>
-      <c r="B41" s="2">
-        <v>37</v>
+      <c r="B41" s="3">
+        <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>79</v>
@@ -4385,7 +4382,7 @@
         <v>69</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P41" s="31">
         <v>0.63541666666666663</v>
@@ -4395,8 +4392,8 @@
       <c r="A42" s="2">
         <v>1</v>
       </c>
-      <c r="B42" s="2">
-        <v>38</v>
+      <c r="B42" s="3">
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>89</v>
@@ -4433,7 +4430,7 @@
         <v>69</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P42" s="31">
         <v>0.64583333333333337</v>
@@ -4442,7 +4439,7 @@
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>77</v>
@@ -4477,7 +4474,7 @@
         <v>69</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P43" s="31">
         <v>0.65625</v>
@@ -9624,23 +9621,23 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9648,23 +9645,23 @@
         <v>0.40625</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9672,23 +9669,23 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9696,23 +9693,23 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9720,23 +9717,23 @@
         <v>0.4375</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9744,14 +9741,14 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -9762,7 +9759,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9776,12 +9773,12 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -9792,23 +9789,23 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9816,23 +9813,23 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9840,23 +9837,23 @@
         <v>0.5625</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9864,23 +9861,23 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9888,14 +9885,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -9906,23 +9903,23 @@
         <v>0.625</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9930,23 +9927,23 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9954,23 +9951,23 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9978,23 +9975,23 @@
         <v>0.65625</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10002,16 +9999,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF682F7F-8A88-3441-AAEE-286AF0A8F9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26827A9-D900-C94B-9395-1C2A933657BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34480" yWindow="2360" windowWidth="28580" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="410">
   <si>
     <t>RSVP</t>
   </si>
@@ -1721,12 +1721,6 @@
     <t>https://drive.google.com/open?id=1oaMBTFOqvBICdmy6iTYjX3GL8WOCu1ua</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=17_3wWsyNnRhBpTo2ETHf4UsZ2R3Mwsq6</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1YrNNAHVFwB7J5PNprQLZa9cRqH8wlSg-</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1xzswudh0C8dhNhqFF2YCQkteUq18sYZS</t>
   </si>
   <si>
@@ -2042,6 +2036,54 @@
   </si>
   <si>
     <t>Zandi P29</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YGuTVLts47OhcV4jqrneNEx0bwYEjxS9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pwdHDfuLQKV859UcKJzi41JWnhHGn3bp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1b3vw86ab1mvR6Mj4JLsO-LoaEe8DJKRI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=155k1eJrFrFpqkTN9j2BGr9NcYjcBn-E3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1r4GgA91ocAujHXfYrIO-iDQjdqi8y_64</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gKmcfcw0hQfyjzw4EGku-_QS_ySZMyoG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-XH1kcmK35VgIxAa1jOElmrsAq13HfuA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DgVB01_dMI4vszjU5SpVM2nif77DjbPY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zQlR5kqd6aZj1EuJpDqpQoowQ69QbpZ3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cmS2mqdp05YwRNICLqO_A59nvzYM45IW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eP63506olKJ0kqeonNm6iloNDN3ibkon</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13a6-wsMI84OZQFacHi-5M18S7JTCCtkR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IfDbO96zROxfoAA9RXhbcu19S6d3d6Rd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kFSR9bqHoMHpQgwNl5gZzzicUs1ZwyPh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rEFMOzOdKavnq3cPxmW3hTZq7GPWeD3d</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-x-jzGgq0D-aHZh7dpEQL76OCSB0HmQX</t>
   </si>
 </sst>
 </file>
@@ -2544,10 +2586,10 @@
   <dimension ref="A1:AE994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2644,7 +2686,7 @@
         <v>308</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -2665,10 +2707,10 @@
         <v>325</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
@@ -2688,7 +2730,7 @@
         <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2712,10 +2754,10 @@
         <v>226</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>330</v>
@@ -2732,7 +2774,7 @@
         <v>309</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2753,14 +2795,14 @@
         <v>326</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="2" t="s">
-        <v>69</v>
+      <c r="N4" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="8"/>
@@ -2774,7 +2816,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2818,7 +2860,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2844,8 +2886,8 @@
       <c r="L6" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>69</v>
+      <c r="N6" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>332</v>
@@ -2862,7 +2904,7 @@
         <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2888,8 +2930,8 @@
       <c r="L7" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>69</v>
+      <c r="N7" s="19" t="s">
+        <v>396</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>333</v>
@@ -2906,7 +2948,7 @@
         <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2933,8 +2975,8 @@
         <v>232</v>
       </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="2" t="s">
-        <v>69</v>
+      <c r="N8" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>334</v>
@@ -2950,7 +2992,7 @@
         <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -2976,8 +3018,8 @@
       <c r="L9" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>69</v>
+      <c r="N9" s="19" t="s">
+        <v>398</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>335</v>
@@ -2994,7 +3036,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -3022,7 +3064,7 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>336</v>
@@ -3040,7 +3082,7 @@
         <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -3064,10 +3106,10 @@
         <v>205</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>337</v>
@@ -3082,7 +3124,7 @@
         <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -3126,7 +3168,7 @@
         <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -3152,8 +3194,8 @@
       <c r="L13" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>69</v>
+      <c r="N13" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>339</v>
@@ -3168,7 +3210,7 @@
         <v>311</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -3210,7 +3252,7 @@
         <v>312</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -3236,8 +3278,8 @@
       <c r="L15" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>69</v>
+      <c r="N15" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>341</v>
@@ -3254,7 +3296,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -3280,8 +3322,8 @@
       <c r="L16" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>69</v>
+      <c r="N16" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>342</v>
@@ -3296,7 +3338,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -3322,8 +3364,8 @@
       <c r="L17" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>69</v>
+      <c r="N17" s="19" t="s">
+        <v>409</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>343</v>
@@ -3340,7 +3382,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -3367,8 +3409,8 @@
         <v>242</v>
       </c>
       <c r="M18" s="13"/>
-      <c r="N18" s="2" t="s">
-        <v>69</v>
+      <c r="N18" s="19" t="s">
+        <v>402</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>166</v>
@@ -3386,7 +3428,7 @@
         <v>142</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -3430,7 +3472,7 @@
         <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -3474,7 +3516,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -3516,7 +3558,7 @@
         <v>313</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -3537,10 +3579,10 @@
         <v>327</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="2" t="s">
@@ -3562,7 +3604,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -3588,8 +3630,8 @@
       <c r="L23" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>69</v>
+      <c r="N23" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>346</v>
@@ -3604,7 +3646,7 @@
         <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -3646,7 +3688,7 @@
         <v>314</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -3667,13 +3709,13 @@
         <v>328</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>69</v>
+        <v>360</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="O25" s="3"/>
     </row>
@@ -3686,7 +3728,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -3728,7 +3770,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -3753,7 +3795,7 @@
       </c>
       <c r="L27" s="22"/>
       <c r="N27" s="19" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>349</v>
@@ -3768,7 +3810,7 @@
         <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -3794,8 +3836,8 @@
       <c r="L28" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>69</v>
+      <c r="N28" s="19" t="s">
+        <v>407</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>168</v>
@@ -3810,7 +3852,7 @@
         <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -3852,7 +3894,7 @@
         <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -3878,8 +3920,8 @@
       <c r="L30" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>69</v>
+      <c r="N30" s="19" t="s">
+        <v>408</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>351</v>
@@ -9533,40 +9575,54 @@
     <hyperlink ref="K37" r:id="rId2" xr:uid="{847CF353-1219-E34E-A174-24028B9E549C}"/>
     <hyperlink ref="K39" r:id="rId3" xr:uid="{DB8A57A9-AE1E-BB48-8F7B-DD71AF1DDAD7}"/>
     <hyperlink ref="K42" r:id="rId4" xr:uid="{E344C7B6-F392-104C-A524-552C9CD6EB59}"/>
-    <hyperlink ref="N26" r:id="rId5" xr:uid="{4474B31E-15ED-CB4E-99AE-9146DB5EEFE4}"/>
-    <hyperlink ref="N27" r:id="rId6" xr:uid="{B60FC10D-866A-3241-ADB4-F2929C45CD01}"/>
-    <hyperlink ref="N3" r:id="rId7" xr:uid="{EF35710E-9469-7541-9C38-48E9C21DB74B}"/>
-    <hyperlink ref="N10" r:id="rId8" xr:uid="{563305EC-8EE4-9D48-8879-6DB546E0BCA5}"/>
-    <hyperlink ref="N11" r:id="rId9" xr:uid="{DF96D38B-9295-E941-BBE6-0C52ECBD5D58}"/>
-    <hyperlink ref="K2" r:id="rId10" xr:uid="{3A20965F-800C-4547-92D1-BF7325746601}"/>
-    <hyperlink ref="K3" r:id="rId11" xr:uid="{9BAB7CC1-0DFD-7942-8B18-5DC59315263E}"/>
-    <hyperlink ref="K5" r:id="rId12" xr:uid="{AE6C7338-3F9F-DE4F-A3BF-BB708F00420F}"/>
-    <hyperlink ref="K6" r:id="rId13" xr:uid="{13A47C58-5ED3-F141-9F06-95D0988E98CA}"/>
-    <hyperlink ref="K7" r:id="rId14" xr:uid="{7B06D264-6EF7-9646-92B7-B8A031158B38}"/>
-    <hyperlink ref="K8" r:id="rId15" xr:uid="{0BDAE0C9-D72C-4249-8E49-396630F8B8B0}"/>
-    <hyperlink ref="K9" r:id="rId16" xr:uid="{BAAD0FC0-B224-C74D-86A9-E57E5F20C4AF}"/>
-    <hyperlink ref="K10" r:id="rId17" xr:uid="{1E09CB59-7AB5-0B44-89E3-2E342D181E43}"/>
-    <hyperlink ref="K11" r:id="rId18" xr:uid="{66F622E3-3560-AD41-AE61-A9DAA345FF2E}"/>
-    <hyperlink ref="K12" r:id="rId19" xr:uid="{6D5BAE3D-AEC8-BC40-97A3-C9E1CE12E181}"/>
-    <hyperlink ref="K13" r:id="rId20" xr:uid="{023B3ED8-1010-AE4A-86CA-CBFC7A6DE3FA}"/>
-    <hyperlink ref="K14" r:id="rId21" xr:uid="{B655E6DC-A0D2-3B46-8271-B6F2C24296D1}"/>
-    <hyperlink ref="K15" r:id="rId22" xr:uid="{588B9961-3DFE-9143-9213-6EFCF79FC71D}"/>
-    <hyperlink ref="K16" r:id="rId23" xr:uid="{48F69B9D-701A-7C4E-9A84-BABA8A41CF89}"/>
-    <hyperlink ref="K17" r:id="rId24" xr:uid="{4A1EE126-7D7C-6944-B93C-4470C08C3FFC}"/>
-    <hyperlink ref="K18" r:id="rId25" xr:uid="{CE073C01-8B4E-C84A-BC05-F1A007BBF477}"/>
-    <hyperlink ref="K19" r:id="rId26" xr:uid="{E3B6F2A4-955F-5748-AC2E-D74BDFB2FB3C}"/>
-    <hyperlink ref="K20" r:id="rId27" xr:uid="{4E85E15D-5EB3-DA4E-A639-6BEB6AC7C1E8}"/>
-    <hyperlink ref="K21" r:id="rId28" xr:uid="{77CD2CD7-D9E8-6C40-9F23-9ABB05BEF71E}"/>
-    <hyperlink ref="K23" r:id="rId29" xr:uid="{6A6D91A6-C509-3547-8AAB-130885B18460}"/>
-    <hyperlink ref="K24" r:id="rId30" xr:uid="{C674998E-F657-1247-86B3-213AA9521633}"/>
-    <hyperlink ref="K26" r:id="rId31" xr:uid="{17337AC4-9E54-B044-A73B-1B37C4991A5C}"/>
-    <hyperlink ref="K27" r:id="rId32" xr:uid="{D7F48E36-4D91-9F4B-BA02-22992B848781}"/>
-    <hyperlink ref="K28" r:id="rId33" xr:uid="{78B062FA-E813-6B42-8D03-DBD660295864}"/>
-    <hyperlink ref="K29" r:id="rId34" xr:uid="{FD9749DB-253E-B440-917E-F8530F074992}"/>
-    <hyperlink ref="K30" r:id="rId35" xr:uid="{DAAFD31B-F8E2-E04B-A7E5-AA5C02989F24}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{3A20965F-800C-4547-92D1-BF7325746601}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{9BAB7CC1-0DFD-7942-8B18-5DC59315263E}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{AE6C7338-3F9F-DE4F-A3BF-BB708F00420F}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{13A47C58-5ED3-F141-9F06-95D0988E98CA}"/>
+    <hyperlink ref="K7" r:id="rId9" xr:uid="{7B06D264-6EF7-9646-92B7-B8A031158B38}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{0BDAE0C9-D72C-4249-8E49-396630F8B8B0}"/>
+    <hyperlink ref="K9" r:id="rId11" xr:uid="{BAAD0FC0-B224-C74D-86A9-E57E5F20C4AF}"/>
+    <hyperlink ref="K10" r:id="rId12" xr:uid="{1E09CB59-7AB5-0B44-89E3-2E342D181E43}"/>
+    <hyperlink ref="K11" r:id="rId13" xr:uid="{66F622E3-3560-AD41-AE61-A9DAA345FF2E}"/>
+    <hyperlink ref="K12" r:id="rId14" xr:uid="{6D5BAE3D-AEC8-BC40-97A3-C9E1CE12E181}"/>
+    <hyperlink ref="K13" r:id="rId15" xr:uid="{023B3ED8-1010-AE4A-86CA-CBFC7A6DE3FA}"/>
+    <hyperlink ref="K14" r:id="rId16" xr:uid="{B655E6DC-A0D2-3B46-8271-B6F2C24296D1}"/>
+    <hyperlink ref="K15" r:id="rId17" xr:uid="{588B9961-3DFE-9143-9213-6EFCF79FC71D}"/>
+    <hyperlink ref="K16" r:id="rId18" xr:uid="{48F69B9D-701A-7C4E-9A84-BABA8A41CF89}"/>
+    <hyperlink ref="K17" r:id="rId19" xr:uid="{4A1EE126-7D7C-6944-B93C-4470C08C3FFC}"/>
+    <hyperlink ref="K18" r:id="rId20" xr:uid="{CE073C01-8B4E-C84A-BC05-F1A007BBF477}"/>
+    <hyperlink ref="K19" r:id="rId21" xr:uid="{E3B6F2A4-955F-5748-AC2E-D74BDFB2FB3C}"/>
+    <hyperlink ref="K20" r:id="rId22" xr:uid="{4E85E15D-5EB3-DA4E-A639-6BEB6AC7C1E8}"/>
+    <hyperlink ref="K21" r:id="rId23" xr:uid="{77CD2CD7-D9E8-6C40-9F23-9ABB05BEF71E}"/>
+    <hyperlink ref="K23" r:id="rId24" xr:uid="{6A6D91A6-C509-3547-8AAB-130885B18460}"/>
+    <hyperlink ref="K24" r:id="rId25" xr:uid="{C674998E-F657-1247-86B3-213AA9521633}"/>
+    <hyperlink ref="K26" r:id="rId26" xr:uid="{17337AC4-9E54-B044-A73B-1B37C4991A5C}"/>
+    <hyperlink ref="K27" r:id="rId27" xr:uid="{D7F48E36-4D91-9F4B-BA02-22992B848781}"/>
+    <hyperlink ref="K28" r:id="rId28" xr:uid="{78B062FA-E813-6B42-8D03-DBD660295864}"/>
+    <hyperlink ref="K29" r:id="rId29" xr:uid="{FD9749DB-253E-B440-917E-F8530F074992}"/>
+    <hyperlink ref="K30" r:id="rId30" xr:uid="{DAAFD31B-F8E2-E04B-A7E5-AA5C02989F24}"/>
+    <hyperlink ref="N30" r:id="rId31" xr:uid="{E5DF0D2D-AA98-CF47-97D8-5C4DB8D84345}"/>
+    <hyperlink ref="N27" r:id="rId32" xr:uid="{4240E79F-4603-D247-BF2D-5481D0219A67}"/>
+    <hyperlink ref="N26" r:id="rId33" xr:uid="{BE081949-F447-C942-864C-DC69AAE93E7A}"/>
+    <hyperlink ref="N10" r:id="rId34" xr:uid="{8AEC0999-68D1-D94F-8654-56AF95242CE8}"/>
+    <hyperlink ref="N11" r:id="rId35" xr:uid="{31086872-821C-8947-BDDF-40A224BB78E8}"/>
+    <hyperlink ref="N4" r:id="rId36" xr:uid="{ABF48934-D37F-9B44-9E47-3EC317E16957}"/>
+    <hyperlink ref="N6" r:id="rId37" xr:uid="{87EE5DFC-C365-5B4B-9E89-50074C40FC81}"/>
+    <hyperlink ref="N7" r:id="rId38" xr:uid="{33384B5B-36F7-E340-BA5A-15FF7723F060}"/>
+    <hyperlink ref="N8" r:id="rId39" xr:uid="{AAAC9FE0-4E38-E946-8925-C3C28CAF682F}"/>
+    <hyperlink ref="N9" r:id="rId40" xr:uid="{09081B3E-8CC1-CD4F-BEBB-69C2C834C591}"/>
+    <hyperlink ref="N13" r:id="rId41" xr:uid="{B880880B-60A1-3340-863C-75A35FFEB63A}"/>
+    <hyperlink ref="N15" r:id="rId42" xr:uid="{7C824D20-5C4E-F248-9AB7-332D4EF7768B}"/>
+    <hyperlink ref="N16" r:id="rId43" xr:uid="{6B961D33-5259-A147-BC5E-1CB1CB678BB0}"/>
+    <hyperlink ref="N18" r:id="rId44" xr:uid="{63752083-349A-9E41-9E4B-4E4A53562AFD}"/>
+    <hyperlink ref="N23" r:id="rId45" xr:uid="{FDB9AC92-8E25-5F48-A9E5-32792588CC43}"/>
+    <hyperlink ref="N3" r:id="rId46" xr:uid="{8E2DB897-E8A4-734C-8ACA-10FB0E7CB9A4}"/>
+    <hyperlink ref="N25" r:id="rId47" xr:uid="{2BFB71E8-5FFD-FE45-B406-4FDC5EA0778A}"/>
+    <hyperlink ref="N28" r:id="rId48" xr:uid="{3E68C46A-4DE1-AD4A-A600-8A49574C7D33}"/>
+    <hyperlink ref="N17" r:id="rId49" xr:uid="{FE15C0B1-5081-894E-B3DB-C08F671343B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId36"/>
+  <legacyDrawing r:id="rId50"/>
 </worksheet>
 </file>
 

--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26827A9-D900-C94B-9395-1C2A933657BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB5D25-96B3-0B44-8824-1482A7105752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="2360" windowWidth="28580" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="740" windowWidth="24960" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="old references" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="old references" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="486">
   <si>
     <t>RSVP</t>
   </si>
@@ -273,12 +274,6 @@
   </si>
   <si>
     <t>wenqianzhang95@arizona.edu</t>
-  </si>
-  <si>
-    <t>Jianwen</t>
-  </si>
-  <si>
-    <t>janewendu@arizona.edu</t>
   </si>
   <si>
     <t>https://docs.google.com/document/d/1hT2U39soV8a_uphD9Ixr6Da_KWFT-_u_/edit</t>
@@ -661,9 +656,6 @@
     <t>Snowpack Productivity to Surface Water of the Salt and Verde Watersheds</t>
   </si>
   <si>
-    <t>Quantifying the impact of CO2 transport and transient hydrological flow on basalt weathering at the Biosphere 2 Landscape Evolution Observatory</t>
-  </si>
-  <si>
     <t>Determining the source and quality of groundwater in the headwaters of the Babocomari watershed</t>
   </si>
   <si>
@@ -737,9 +729,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1WKuXdwPwHRyEsARj0i4jDGpz2rp4e-MX</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1dz45lgtqf33qgTQNOuu0nrQujzui5-v9</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1SDc0Eu5Bg9ZicHZiphdrNzt9ecuIjwLb</t>
@@ -893,87 +882,6 @@
   </si>
   <si>
     <t>Weather-related events can impact areas hundreds of miles away from the source.  A prime example is snowmelt that leads to increased flow downstream in populated areas.  The Salt and Verde Rivers are the two main rivers that flow into the Phoenix area and supply the Salt River Project.  In March of 2023, sequential storms and rapid snowmelt on the Verde watershed produced significant runoff that ultimately overwhelmed the reservoirs and required a large release into the Salt River.  This bred safety issues and unfortunately even fatalities.  (e.g. AP 2023).  It is therefore critical to accurately predict how much snow remains as potential snowmelt to further plan reservoir and emergency management operations downstream.  In this study we show this relationship to be dependent on the elevation and region of the watershed on which the snowmelt occurred.  The Salt and Verde watersheds receive different amounts of precipitation and react differently to snowmelt.  Generally, the rate at which this occurs is most prominent and notable in the Verde system as it has less storage capacity than the Salt system.  Liquid precipitation, i.e. rain, also played a significant role in the study and resulted in larger inflows to the reservoir system than snow water equivalent on the respective watersheds.  This poses dangers as well by increasing the rate of melting which increases flow downstream in the populated areas.</t>
-  </si>
-  <si>
-    <r>
-      <t>Transient hydrological flow and the transport of gases play important roles in controlling soil formation in the critical zone. In the present work, we apply a three-dimensional reactive transport model (RTM) to simulate basalt weathering at the Biosphere 2 Landscape Evolution Observatory, which consists of three zeroth-order replicated artificial hillslopes (each having 330 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> area and a 1 m deep crushed basalt soil). The RTM accounts for transient variably saturated flow, transport of aqueous species and gases, and mineral-water reactions including precipitation and dissolution. We constrain and calibrate the RTM using high-resolution temporal and spatial observations of water discharge rates, outflow water chemistry, soil moisture, porewater chemistry, and soil CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> gas concentrations. The model simulations and comparisons with outflow water chemistry and other datasets allow us to identify the dominant processes controlling chemical weathering under different conditions. Our results suggest that transient hydrological flow and CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> transport both enhance the spatial heterogeneity of mineral dissolution and precipitation. The heterogeneity of mineral species distributions further influences the flow path and residence time of soil water and subsequently affects reactions. Overall, the present work considering both the transient hydrological flow and CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> transport in modeling chemical weathering provides a reliable tool for analyzing and quantifying basalt weathering.</t>
-    </r>
   </si>
   <si>
     <t>The sustainability of groundwater resources in the face of climate change and overextraction is a major concern for many communities with growing populations and/or evolving land use regimes. However, many such communities lack comprehensive hydrologic studies that would help identify the location, nature, and quality of groundwater recharge in these areas. The Babocomari Watershed, which encompasses numerous communities like Huachuca City, Fort Huachuca, Sierra Vista, and Elgin, is undergoing land-use change from ranching to agricultural irrigation. The Babocomari Cienega in the area is also fed by groundwater, and its ability to provide habitat for numerous endangered flora and fauna may be threatened by declines in groundwater levels. Determining the source and quality of groundwater in the Babocomari Cienega and the surrounding areas can improve the modeling and forecasting of the Babocomari watershed’s hydrology and inform future groundwater management decisions. This paper builds upon previous studies on groundwater characterization in the watershed through the collection and interpretation of solute chemistry, stable water isotopes, and age tracers (tritium, radiocarbon). Groundwater ages in the area ranged from modern to more than 7,000 years old, with some groundwater wells containing mixed-age waters which could be vulnerable to anthropogenic influences since they are actively recharged by precipitation. A few groundwater samples had elevated nitrate and sulfate concentrations; additional isotopic analysis is needed to determine whether these solutes are from natural or human sources.</t>
@@ -1652,9 +1560,6 @@
     <t>Yonghoon Choi, Ewan C. Crosbie, Joshua P. DiGangi, Glenn S. Diskin, Marta A. Fenn, Richard A. Ferrare, Johnathan W. Hair, Miguel Ricardo A. Hilario, Chris A. Hostetler, Simon Kirschler, Richard H. Moore, Taylor J. Shingler, Michael A. Shook, Cassidy Soloff1, Kenneth L. Thornhill, Christiane Voigt, Edward L. Winstead, Luke D. Ziemba, Armin Sorooshian</t>
   </si>
   <si>
-    <t>Guo-Yue Niu, Katerina Dontsova, Peter A. Troch, Jon Chorover</t>
-  </si>
-  <si>
     <t>Marcus Lofverstrom</t>
   </si>
   <si>
@@ -1719,9 +1624,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1oaMBTFOqvBICdmy6iTYjX3GL8WOCu1ua</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1xzswudh0C8dhNhqFF2YCQkteUq18sYZS</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1q1RZNdW82l9QK3F7PhMs-qggZ6s9sa-T</t>
@@ -1960,9 +1862,6 @@
     <t>Betito P3</t>
   </si>
   <si>
-    <t>Du P4</t>
-  </si>
-  <si>
     <t>Giralte P5</t>
   </si>
   <si>
@@ -1981,45 +1880,6 @@
     <t>Hoopes P10</t>
   </si>
   <si>
-    <t>Ma P11</t>
-  </si>
-  <si>
-    <t>Makgoale P12</t>
-  </si>
-  <si>
-    <t>Mirrezaei P13</t>
-  </si>
-  <si>
-    <t>Moeschl P14</t>
-  </si>
-  <si>
-    <t>Natale P15</t>
-  </si>
-  <si>
-    <t>Zhong P16</t>
-  </si>
-  <si>
-    <t>Nicholas P17</t>
-  </si>
-  <si>
-    <t>Puente P18</t>
-  </si>
-  <si>
-    <t>Roberts IV P19</t>
-  </si>
-  <si>
-    <t>Smith P20</t>
-  </si>
-  <si>
-    <t>Sterling P21</t>
-  </si>
-  <si>
-    <t>Tadych P22</t>
-  </si>
-  <si>
-    <t>Team P23</t>
-  </si>
-  <si>
     <t>Triplett P24</t>
   </si>
   <si>
@@ -2059,9 +1919,6 @@
     <t>https://drive.google.com/open?id=1-XH1kcmK35VgIxAa1jOElmrsAq13HfuA</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1DgVB01_dMI4vszjU5SpVM2nif77DjbPY</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1zQlR5kqd6aZj1EuJpDqpQoowQ69QbpZ3</t>
   </si>
   <si>
@@ -2084,13 +1941,329 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1-x-jzGgq0D-aHZh7dpEQL76OCSB0HmQX</t>
+  </si>
+  <si>
+    <t>Monday 1/15</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>No, not submitting PDF</t>
+  </si>
+  <si>
+    <t>ICREWW Team</t>
+  </si>
+  <si>
+    <t>NEED</t>
+  </si>
+  <si>
+    <t>Jessi</t>
+  </si>
+  <si>
+    <t>Acke</t>
+  </si>
+  <si>
+    <t>Claire Acke</t>
+  </si>
+  <si>
+    <t>Ajayi</t>
+  </si>
+  <si>
+    <t>Taiwo Ajayi</t>
+  </si>
+  <si>
+    <t>Betito</t>
+  </si>
+  <si>
+    <t>Grace Betito</t>
+  </si>
+  <si>
+    <t>De la Fuente</t>
+  </si>
+  <si>
+    <t>Luis De la Fuente</t>
+  </si>
+  <si>
+    <t>Giralte</t>
+  </si>
+  <si>
+    <t>Gigi Giralte</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>Tong Guo</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Eden Harper</t>
+  </si>
+  <si>
+    <t>Hasenstab</t>
+  </si>
+  <si>
+    <t>Jonathan Hasenstab</t>
+  </si>
+  <si>
+    <t>Headley</t>
+  </si>
+  <si>
+    <t>Justin Headley</t>
+  </si>
+  <si>
+    <t>Hoopes</t>
+  </si>
+  <si>
+    <t>Charles Andrew Hoopes</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Min Ma</t>
+  </si>
+  <si>
+    <t>Makgoale</t>
+  </si>
+  <si>
+    <t>Thabo Elias Makgoale</t>
+  </si>
+  <si>
+    <t>Mirrezaei</t>
+  </si>
+  <si>
+    <t>Mohammad Amin Mirrezaei</t>
+  </si>
+  <si>
+    <t>Moeschl</t>
+  </si>
+  <si>
+    <t>Jessi Moeschl</t>
+  </si>
+  <si>
+    <t>Natale</t>
+  </si>
+  <si>
+    <t>Jacob Natale</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Marleigh Nicholas</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>Patricia Puente</t>
+  </si>
+  <si>
+    <t>Roberts IV</t>
+  </si>
+  <si>
+    <t>Roswell Roberts IV</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Dylan Simpson</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jacob Smith</t>
+  </si>
+  <si>
+    <t>Sterling</t>
+  </si>
+  <si>
+    <t>Holland Sterling</t>
+  </si>
+  <si>
+    <t>Tadych</t>
+  </si>
+  <si>
+    <t>Danielle Tadych</t>
+  </si>
+  <si>
+    <t>Triplett</t>
+  </si>
+  <si>
+    <t>Amanda Triplett</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Sabrina Wilson</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Yike Xu</t>
+  </si>
+  <si>
+    <t>Yousefi Sohi</t>
+  </si>
+  <si>
+    <t>Hossein Yousefi Sohi</t>
+  </si>
+  <si>
+    <t>Yurek</t>
+  </si>
+  <si>
+    <t>Natalie Yurek</t>
+  </si>
+  <si>
+    <t>Zandi</t>
+  </si>
+  <si>
+    <t>Omid Zandi</t>
+  </si>
+  <si>
+    <t>Zhong</t>
+  </si>
+  <si>
+    <t>Xiang Zhong</t>
+  </si>
+  <si>
+    <t>De la Fuente P4</t>
+  </si>
+  <si>
+    <t>ldelafue@arizona.edu</t>
+  </si>
+  <si>
+    <t>Exploring Catchment Regionalization through HydroLSTM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1f8QRWGsk3CKjPHKWK1Jp6E4ABQfLkxuE</t>
+  </si>
+  <si>
+    <t>Hydrologists have been working on the issue of regionalization for decades. It is used when transferring parameters from one calibrated model to another and when searching for similarities between gauged and ungauged catchments. However, a unified method of regionalization that can successfully transfer parameters and identify similarities between different regions, accounting for differences in meteorological forcing, catchment attributes, and hydrological responses, is still an open research question. 
+Machine learning (ML) has shown promising results in the generalization of its results at temporal and spatial scales for streamflow prediction. This indicates that ML models have learned useful regionalization relationships that we would like to extract. In this study, the HydroLSTM representation, which is a modification of the traditional Long Short-Term Memory, is explored to learn meaningful relationships between meteorological forcing and catchment attributes. 
+A promising feature of the HydroLSTM representation is that the learned relationships can generate different hydrological responses across the US. These results indicate the potential to learn more about regionalization just by learning from our ML models.</t>
+  </si>
+  <si>
+    <t>Laura Condon, Hoshin Gupta, Andrew Bennett</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1i8A2_7bcpOwOJra9BOVlaHDZDFVxOE0z</t>
+  </si>
+  <si>
+    <t>Team P11</t>
+  </si>
+  <si>
+    <t>dylanpsimpson@arizona.edu</t>
+  </si>
+  <si>
+    <t>Annual Groundwater Withdrawals By Agriculture In The Willcox Basin, 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aZiWGFSZE5yj1UY0GLbWyG3MSMJb6TL1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Willcox Groundwater Basin is a highly-active farming region in southeastern Arizona near the borders of New Mexico and Mexico. Its aquifer receives minimal recharge from precipitation (13 in/year) yet farming in Cochise County has continued to increase over the century as population growth demands more agricultural resources. In response to over-pumping the basin has undergone substantial and irreversible subsidence: sections of the basin have subsided almost 10 feet in the past 50 years. To estimate the yearly withdrawal from the Willcox aquifer various properties of the agriculture fields were gathered. To gather properties of various fields such as crop type, area, and length of the growing season, infrared satellite imagery was coupled with physical field visits throughout the year. In addition to observing and recording types of crops, field visits were crucial in understanding variables such as irrigation type and irrigation efficiency that play a role in the overall withdrawal. PRISM (Parameter-elevation Regressions on Independent Slopes Model) data are used to integrate weather conditions such as precipitation and temperature. Some field properties and weather data were used in a modified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Blaney-Criddle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>model to estimate annual consumptive use, additional field properties were used to estimate groundwater withdrawals in 2023. Previous years’ estimates of total withdrawal throughout the Willcox Basin were around 200,000 ac-ft for 2020 and 150,000 ac-feet for 2022.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l63b29KTpEhJIp5RXoO-9pCnrsfmKz9S</t>
+  </si>
+  <si>
+    <t>Dylan Simpson, Amy Read, Tom Porter, Abigail Kahler</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JRzS1X5hqBNolglf_x8-x1xZTnUQSnbf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1h15jmaLxji_CieDizD-aSYRx2AtHq68f</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tDSN3sNBg0U15s_8eeSV6kxHElP3E1n5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TjyqrtLXyPwxHQzn2wST9DteT5saqE_g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1SPnUfOi_lGt2kkQ_LrhI4dIF6VNizH_u</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1otmS0Bsf2zPm_42fj2iFzfLnHN5iUwIT</t>
+  </si>
+  <si>
+    <t>Ma P12</t>
+  </si>
+  <si>
+    <t>Makgoale P13</t>
+  </si>
+  <si>
+    <t>Mirrezaei P14</t>
+  </si>
+  <si>
+    <t>Moeschl P15</t>
+  </si>
+  <si>
+    <t>Natale P16</t>
+  </si>
+  <si>
+    <t>Nicholas P18</t>
+  </si>
+  <si>
+    <t>Puente P19</t>
+  </si>
+  <si>
+    <t>Roberts IV P20</t>
+  </si>
+  <si>
+    <t>Simpson P21</t>
+  </si>
+  <si>
+    <t>Smith P21</t>
+  </si>
+  <si>
+    <t>Sterling P22</t>
+  </si>
+  <si>
+    <t>Tadych P23</t>
+  </si>
+  <si>
+    <t>Zhong P30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2270,6 +2443,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2313,7 +2492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2364,6 +2543,9 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2583,13 +2765,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE994"/>
+  <dimension ref="A1:AE995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2675,7 +2857,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2683,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -2695,42 +2877,42 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2739,31 +2921,31 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2771,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2783,40 +2965,40 @@
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="19" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>390</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2825,42 +3007,42 @@
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>239</v>
+        <v>456</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>457</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="2" t="s">
-        <v>69</v>
+      <c r="N5" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>331</v>
+        <v>458</v>
       </c>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2869,31 +3051,31 @@
         <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2901,10 +3083,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2913,31 +3095,31 @@
         <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2945,10 +3127,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2957,42 +3139,42 @@
         <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="19" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -3001,31 +3183,31 @@
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3033,10 +3215,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -3045,33 +3227,33 @@
         <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="19" t="s">
-        <v>353</v>
+      <c r="N10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -3079,10 +3261,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -3091,28 +3273,28 @@
         <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3121,54 +3303,52 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="2" t="s">
-        <v>69</v>
+        <v>207</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>469</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>310</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -3177,40 +3357,42 @@
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>399</v>
+        <v>215</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -3219,40 +3401,40 @@
         <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -3261,42 +3443,40 @@
         <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -3305,40 +3485,42 @@
         <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>236</v>
+        <v>210</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -3347,31 +3529,31 @@
         <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3382,7 +3564,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -3394,30 +3576,30 @@
         <v>38</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="19" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3425,10 +3607,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -3437,42 +3619,42 @@
         <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="2" t="s">
-        <v>69</v>
+      <c r="N19" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>383</v>
+        <v>480</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -3481,42 +3663,40 @@
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>69</v>
+        <v>243</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>468</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>384</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -3525,40 +3705,42 @@
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>461</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>69</v>
+        <v>463</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>465</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -3567,44 +3749,40 @@
         <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>324</v>
+        <v>102</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="2" t="s">
-        <v>69</v>
+        <v>184</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>470</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
       <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -3613,40 +3791,44 @@
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>206</v>
+        <v>322</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>403</v>
+        <v>356</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -3655,28 +3837,28 @@
         <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>69</v>
+        <v>227</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3685,10 +3867,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -3697,25 +3879,25 @@
         <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="O25" s="3"/>
     </row>
@@ -3728,7 +3910,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -3740,25 +3922,25 @@
         <v>37</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3770,7 +3952,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -3782,23 +3964,23 @@
         <v>49</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L27" s="22"/>
       <c r="N27" s="19" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3807,10 +3989,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -3819,28 +4001,28 @@
         <v>20</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3849,10 +4031,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -3861,28 +4043,28 @@
         <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>69</v>
+        <v>240</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>471</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,10 +4073,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -3903,87 +4085,82 @@
         <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
+        <v>144</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>18</v>
+        <v>162</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" s="31">
-        <v>0.39583333333333331</v>
+        <v>200</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -3992,43 +4169,45 @@
         <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>45</v>
+        <v>114</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="P32" s="31">
-        <v>0.40625</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
       <c r="B33" s="3">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -4037,45 +4216,43 @@
         <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P33" s="31">
-        <v>0.41666666666666669</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -4084,128 +4261,130 @@
         <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P34" s="31">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
         <v>1</v>
       </c>
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="P35" s="31">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="23">
+        <v>1</v>
+      </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>300</v>
+      <c r="J36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="P36" s="31">
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -4221,31 +4400,31 @@
         <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>54</v>
+        <v>101</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P37" s="31">
-        <v>0.55208333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4254,43 +4433,43 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P38" s="31">
-        <v>0.5625</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4298,136 +4477,133 @@
       <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="N39" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="O39" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="P39" s="31">
-        <v>0.57291666666666663</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="N40" s="9"/>
       <c r="O40" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P40" s="31">
-        <v>0.625</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="3">
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P41" s="31">
-        <v>0.63541666666666663</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4438,10 +4614,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>16</v>
@@ -4450,109 +4626,141 @@
         <v>17</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>63</v>
+        <v>108</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="M42" s="10"/>
       <c r="N42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="P42" s="31">
-        <v>0.64583333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="L43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M43" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="M43" s="7"/>
       <c r="N43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>306</v>
+        <v>67</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="P43" s="31">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="P44" s="31">
         <v>0.65625</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="22"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="22"/>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="16"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="21"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="22"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="22"/>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
@@ -4564,7 +4772,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="16"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -4580,14 +4788,16 @@
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="3"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="16"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="21"/>
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
@@ -4600,37 +4810,35 @@
       <c r="O48" s="2"/>
       <c r="P48" s="21"/>
     </row>
-    <row r="49" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+    <row r="49" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="23"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="16"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="27"/>
-    </row>
-    <row r="50" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="3"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="21"/>
+    </row>
+    <row r="50" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="3"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="21"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="16"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="27"/>
     </row>
     <row r="51" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
@@ -4641,8 +4849,8 @@
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="17"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="3"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -4651,14 +4859,14 @@
     <row r="52" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="16"/>
-      <c r="E52" s="23"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="17"/>
       <c r="L52" s="3"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -4667,35 +4875,34 @@
     <row r="53" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="C53" s="16"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="15"/>
-      <c r="N53" s="9"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="3"/>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
+      <c r="P53" s="21"/>
     </row>
     <row r="54" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
       <c r="H54" s="2"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="2"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="15"/>
+      <c r="N54" s="9"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
@@ -4711,7 +4918,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="10"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="3"/>
+      <c r="O55" s="2"/>
       <c r="P55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4724,11 +4931,11 @@
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="17"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" s="3"/>
       <c r="P56" s="8"/>
     </row>
     <row r="57" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4741,19 +4948,29 @@
       <c r="H57" s="2"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="6"/>
+      <c r="K57" s="17"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="10"/>
+      <c r="M57" s="7"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="3"/>
+      <c r="O57" s="2"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="J58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
@@ -4770,6 +4987,8 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="J61" s="2"/>
       <c r="L61" s="2"/>
       <c r="O61" s="2"/>
@@ -4794,34 +5013,24 @@
       <c r="L65" s="2"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="16"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="27"/>
-    </row>
-    <row r="67" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="J66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:16" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="8"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="16"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="27"/>
     </row>
     <row r="68" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
@@ -4832,10 +5041,11 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="16"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="21"/>
+      <c r="P68" s="8"/>
     </row>
     <row r="69" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
@@ -4846,11 +5056,10 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="10"/>
+      <c r="L69" s="16"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="8"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="21"/>
     </row>
     <row r="70" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
@@ -4877,9 +5086,10 @@
       <c r="J71" s="3"/>
       <c r="K71" s="6"/>
       <c r="L71" s="3"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="21"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="8"/>
     </row>
     <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
@@ -4889,7 +5099,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="17"/>
+      <c r="K72" s="6"/>
       <c r="L72" s="3"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -4930,8 +5140,8 @@
       <c r="G75" s="3"/>
       <c r="H75" s="2"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="6"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="3"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -4944,9 +5154,9 @@
       <c r="G76" s="3"/>
       <c r="H76" s="2"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="3"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="21"/>
@@ -4960,33 +5170,42 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="7"/>
+      <c r="L77" s="16"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="8"/>
+      <c r="P77" s="21"/>
     </row>
     <row r="78" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="17"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="15"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="17"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="7"/>
       <c r="N78" s="2"/>
-      <c r="O78" s="15"/>
+      <c r="O78" s="2"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="J79" s="2"/>
+    <row r="79" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="8"/>
     </row>
     <row r="80" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="J80" s="2"/>
@@ -9563,70 +9782,641 @@
       <c r="L994" s="2"/>
       <c r="O994" s="2"/>
     </row>
+    <row r="995" spans="10:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J995" s="2"/>
+      <c r="L995" s="2"/>
+      <c r="O995" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O56" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O56">
-      <sortCondition ref="C1:C56"/>
+  <autoFilter ref="A1:O57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O57">
+      <sortCondition ref="C1:C57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K33" r:id="rId1" xr:uid="{8403283C-F6A2-574C-91D3-463AEA9D0676}"/>
-    <hyperlink ref="K37" r:id="rId2" xr:uid="{847CF353-1219-E34E-A174-24028B9E549C}"/>
-    <hyperlink ref="K39" r:id="rId3" xr:uid="{DB8A57A9-AE1E-BB48-8F7B-DD71AF1DDAD7}"/>
-    <hyperlink ref="K42" r:id="rId4" xr:uid="{E344C7B6-F392-104C-A524-552C9CD6EB59}"/>
+    <hyperlink ref="K34" r:id="rId1" xr:uid="{8403283C-F6A2-574C-91D3-463AEA9D0676}"/>
+    <hyperlink ref="K38" r:id="rId2" xr:uid="{847CF353-1219-E34E-A174-24028B9E549C}"/>
+    <hyperlink ref="K40" r:id="rId3" xr:uid="{DB8A57A9-AE1E-BB48-8F7B-DD71AF1DDAD7}"/>
+    <hyperlink ref="K43" r:id="rId4" xr:uid="{E344C7B6-F392-104C-A524-552C9CD6EB59}"/>
     <hyperlink ref="K2" r:id="rId5" xr:uid="{3A20965F-800C-4547-92D1-BF7325746601}"/>
     <hyperlink ref="K3" r:id="rId6" xr:uid="{9BAB7CC1-0DFD-7942-8B18-5DC59315263E}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{AE6C7338-3F9F-DE4F-A3BF-BB708F00420F}"/>
-    <hyperlink ref="K6" r:id="rId8" xr:uid="{13A47C58-5ED3-F141-9F06-95D0988E98CA}"/>
-    <hyperlink ref="K7" r:id="rId9" xr:uid="{7B06D264-6EF7-9646-92B7-B8A031158B38}"/>
-    <hyperlink ref="K8" r:id="rId10" xr:uid="{0BDAE0C9-D72C-4249-8E49-396630F8B8B0}"/>
-    <hyperlink ref="K9" r:id="rId11" xr:uid="{BAAD0FC0-B224-C74D-86A9-E57E5F20C4AF}"/>
-    <hyperlink ref="K10" r:id="rId12" xr:uid="{1E09CB59-7AB5-0B44-89E3-2E342D181E43}"/>
-    <hyperlink ref="K11" r:id="rId13" xr:uid="{66F622E3-3560-AD41-AE61-A9DAA345FF2E}"/>
-    <hyperlink ref="K12" r:id="rId14" xr:uid="{6D5BAE3D-AEC8-BC40-97A3-C9E1CE12E181}"/>
-    <hyperlink ref="K13" r:id="rId15" xr:uid="{023B3ED8-1010-AE4A-86CA-CBFC7A6DE3FA}"/>
-    <hyperlink ref="K14" r:id="rId16" xr:uid="{B655E6DC-A0D2-3B46-8271-B6F2C24296D1}"/>
-    <hyperlink ref="K15" r:id="rId17" xr:uid="{588B9961-3DFE-9143-9213-6EFCF79FC71D}"/>
-    <hyperlink ref="K16" r:id="rId18" xr:uid="{48F69B9D-701A-7C4E-9A84-BABA8A41CF89}"/>
-    <hyperlink ref="K17" r:id="rId19" xr:uid="{4A1EE126-7D7C-6944-B93C-4470C08C3FFC}"/>
-    <hyperlink ref="K18" r:id="rId20" xr:uid="{CE073C01-8B4E-C84A-BC05-F1A007BBF477}"/>
-    <hyperlink ref="K19" r:id="rId21" xr:uid="{E3B6F2A4-955F-5748-AC2E-D74BDFB2FB3C}"/>
-    <hyperlink ref="K20" r:id="rId22" xr:uid="{4E85E15D-5EB3-DA4E-A639-6BEB6AC7C1E8}"/>
-    <hyperlink ref="K21" r:id="rId23" xr:uid="{77CD2CD7-D9E8-6C40-9F23-9ABB05BEF71E}"/>
-    <hyperlink ref="K23" r:id="rId24" xr:uid="{6A6D91A6-C509-3547-8AAB-130885B18460}"/>
-    <hyperlink ref="K24" r:id="rId25" xr:uid="{C674998E-F657-1247-86B3-213AA9521633}"/>
-    <hyperlink ref="K26" r:id="rId26" xr:uid="{17337AC4-9E54-B044-A73B-1B37C4991A5C}"/>
-    <hyperlink ref="K27" r:id="rId27" xr:uid="{D7F48E36-4D91-9F4B-BA02-22992B848781}"/>
-    <hyperlink ref="K28" r:id="rId28" xr:uid="{78B062FA-E813-6B42-8D03-DBD660295864}"/>
-    <hyperlink ref="K29" r:id="rId29" xr:uid="{FD9749DB-253E-B440-917E-F8530F074992}"/>
-    <hyperlink ref="K30" r:id="rId30" xr:uid="{DAAFD31B-F8E2-E04B-A7E5-AA5C02989F24}"/>
-    <hyperlink ref="N30" r:id="rId31" xr:uid="{E5DF0D2D-AA98-CF47-97D8-5C4DB8D84345}"/>
-    <hyperlink ref="N27" r:id="rId32" xr:uid="{4240E79F-4603-D247-BF2D-5481D0219A67}"/>
-    <hyperlink ref="N26" r:id="rId33" xr:uid="{BE081949-F447-C942-864C-DC69AAE93E7A}"/>
-    <hyperlink ref="N10" r:id="rId34" xr:uid="{8AEC0999-68D1-D94F-8654-56AF95242CE8}"/>
-    <hyperlink ref="N11" r:id="rId35" xr:uid="{31086872-821C-8947-BDDF-40A224BB78E8}"/>
-    <hyperlink ref="N4" r:id="rId36" xr:uid="{ABF48934-D37F-9B44-9E47-3EC317E16957}"/>
-    <hyperlink ref="N6" r:id="rId37" xr:uid="{87EE5DFC-C365-5B4B-9E89-50074C40FC81}"/>
-    <hyperlink ref="N7" r:id="rId38" xr:uid="{33384B5B-36F7-E340-BA5A-15FF7723F060}"/>
-    <hyperlink ref="N8" r:id="rId39" xr:uid="{AAAC9FE0-4E38-E946-8925-C3C28CAF682F}"/>
-    <hyperlink ref="N9" r:id="rId40" xr:uid="{09081B3E-8CC1-CD4F-BEBB-69C2C834C591}"/>
-    <hyperlink ref="N13" r:id="rId41" xr:uid="{B880880B-60A1-3340-863C-75A35FFEB63A}"/>
-    <hyperlink ref="N15" r:id="rId42" xr:uid="{7C824D20-5C4E-F248-9AB7-332D4EF7768B}"/>
-    <hyperlink ref="N16" r:id="rId43" xr:uid="{6B961D33-5259-A147-BC5E-1CB1CB678BB0}"/>
-    <hyperlink ref="N18" r:id="rId44" xr:uid="{63752083-349A-9E41-9E4B-4E4A53562AFD}"/>
-    <hyperlink ref="N23" r:id="rId45" xr:uid="{FDB9AC92-8E25-5F48-A9E5-32792588CC43}"/>
-    <hyperlink ref="N3" r:id="rId46" xr:uid="{8E2DB897-E8A4-734C-8ACA-10FB0E7CB9A4}"/>
-    <hyperlink ref="N25" r:id="rId47" xr:uid="{2BFB71E8-5FFD-FE45-B406-4FDC5EA0778A}"/>
-    <hyperlink ref="N28" r:id="rId48" xr:uid="{3E68C46A-4DE1-AD4A-A600-8A49574C7D33}"/>
-    <hyperlink ref="N17" r:id="rId49" xr:uid="{FE15C0B1-5081-894E-B3DB-C08F671343B1}"/>
+    <hyperlink ref="K6" r:id="rId7" xr:uid="{13A47C58-5ED3-F141-9F06-95D0988E98CA}"/>
+    <hyperlink ref="K7" r:id="rId8" xr:uid="{7B06D264-6EF7-9646-92B7-B8A031158B38}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{0BDAE0C9-D72C-4249-8E49-396630F8B8B0}"/>
+    <hyperlink ref="K9" r:id="rId10" xr:uid="{BAAD0FC0-B224-C74D-86A9-E57E5F20C4AF}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{1E09CB59-7AB5-0B44-89E3-2E342D181E43}"/>
+    <hyperlink ref="K11" r:id="rId12" xr:uid="{66F622E3-3560-AD41-AE61-A9DAA345FF2E}"/>
+    <hyperlink ref="K13" r:id="rId13" xr:uid="{6D5BAE3D-AEC8-BC40-97A3-C9E1CE12E181}"/>
+    <hyperlink ref="K14" r:id="rId14" xr:uid="{023B3ED8-1010-AE4A-86CA-CBFC7A6DE3FA}"/>
+    <hyperlink ref="K15" r:id="rId15" xr:uid="{B655E6DC-A0D2-3B46-8271-B6F2C24296D1}"/>
+    <hyperlink ref="K16" r:id="rId16" xr:uid="{588B9961-3DFE-9143-9213-6EFCF79FC71D}"/>
+    <hyperlink ref="K17" r:id="rId17" xr:uid="{48F69B9D-701A-7C4E-9A84-BABA8A41CF89}"/>
+    <hyperlink ref="K31" r:id="rId18" xr:uid="{4A1EE126-7D7C-6944-B93C-4470C08C3FFC}"/>
+    <hyperlink ref="K18" r:id="rId19" xr:uid="{CE073C01-8B4E-C84A-BC05-F1A007BBF477}"/>
+    <hyperlink ref="K19" r:id="rId20" xr:uid="{E3B6F2A4-955F-5748-AC2E-D74BDFB2FB3C}"/>
+    <hyperlink ref="K20" r:id="rId21" xr:uid="{4E85E15D-5EB3-DA4E-A639-6BEB6AC7C1E8}"/>
+    <hyperlink ref="K22" r:id="rId22" xr:uid="{77CD2CD7-D9E8-6C40-9F23-9ABB05BEF71E}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{6A6D91A6-C509-3547-8AAB-130885B18460}"/>
+    <hyperlink ref="K12" r:id="rId24" xr:uid="{C674998E-F657-1247-86B3-213AA9521633}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{17337AC4-9E54-B044-A73B-1B37C4991A5C}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{D7F48E36-4D91-9F4B-BA02-22992B848781}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{78B062FA-E813-6B42-8D03-DBD660295864}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{FD9749DB-253E-B440-917E-F8530F074992}"/>
+    <hyperlink ref="K30" r:id="rId29" xr:uid="{DAAFD31B-F8E2-E04B-A7E5-AA5C02989F24}"/>
+    <hyperlink ref="N30" r:id="rId30" xr:uid="{E5DF0D2D-AA98-CF47-97D8-5C4DB8D84345}"/>
+    <hyperlink ref="N27" r:id="rId31" xr:uid="{4240E79F-4603-D247-BF2D-5481D0219A67}"/>
+    <hyperlink ref="N26" r:id="rId32" xr:uid="{BE081949-F447-C942-864C-DC69AAE93E7A}"/>
+    <hyperlink ref="N11" r:id="rId33" xr:uid="{31086872-821C-8947-BDDF-40A224BB78E8}"/>
+    <hyperlink ref="N4" r:id="rId34" xr:uid="{ABF48934-D37F-9B44-9E47-3EC317E16957}"/>
+    <hyperlink ref="N6" r:id="rId35" xr:uid="{87EE5DFC-C365-5B4B-9E89-50074C40FC81}"/>
+    <hyperlink ref="N7" r:id="rId36" xr:uid="{33384B5B-36F7-E340-BA5A-15FF7723F060}"/>
+    <hyperlink ref="N8" r:id="rId37" xr:uid="{AAAC9FE0-4E38-E946-8925-C3C28CAF682F}"/>
+    <hyperlink ref="N9" r:id="rId38" xr:uid="{09081B3E-8CC1-CD4F-BEBB-69C2C834C591}"/>
+    <hyperlink ref="N14" r:id="rId39" xr:uid="{B880880B-60A1-3340-863C-75A35FFEB63A}"/>
+    <hyperlink ref="N16" r:id="rId40" xr:uid="{7C824D20-5C4E-F248-9AB7-332D4EF7768B}"/>
+    <hyperlink ref="N18" r:id="rId41" xr:uid="{63752083-349A-9E41-9E4B-4E4A53562AFD}"/>
+    <hyperlink ref="N24" r:id="rId42" xr:uid="{FDB9AC92-8E25-5F48-A9E5-32792588CC43}"/>
+    <hyperlink ref="N3" r:id="rId43" xr:uid="{8E2DB897-E8A4-734C-8ACA-10FB0E7CB9A4}"/>
+    <hyperlink ref="N25" r:id="rId44" xr:uid="{2BFB71E8-5FFD-FE45-B406-4FDC5EA0778A}"/>
+    <hyperlink ref="N28" r:id="rId45" xr:uid="{3E68C46A-4DE1-AD4A-A600-8A49574C7D33}"/>
+    <hyperlink ref="N31" r:id="rId46" xr:uid="{FE15C0B1-5081-894E-B3DB-C08F671343B1}"/>
+    <hyperlink ref="K5" r:id="rId47" xr:uid="{0E63CA7E-A359-C248-8CFD-ABA1A22300D4}"/>
+    <hyperlink ref="N5" r:id="rId48" xr:uid="{8794E72F-422D-3A40-B2A5-3693A39942BD}"/>
+    <hyperlink ref="K21" r:id="rId49" xr:uid="{65168F6A-1516-1E41-970E-3234F105FB2A}"/>
+    <hyperlink ref="N21" r:id="rId50" xr:uid="{F0883E7A-C4C5-A24B-A8D9-EF33B72F8F48}"/>
+    <hyperlink ref="N19" r:id="rId51" xr:uid="{FAB269E0-B569-B74D-8F87-C758F6C1EF9C}"/>
+    <hyperlink ref="N20" r:id="rId52" xr:uid="{B19F0688-3A3A-D84F-B034-58E92E35C54B}"/>
+    <hyperlink ref="N12" r:id="rId53" xr:uid="{07D39F38-43DC-E94D-9BCA-A4170462AE90}"/>
+    <hyperlink ref="N22" r:id="rId54" xr:uid="{AC15B628-0EE7-5A43-82FE-4FDBBEF8BF8B}"/>
+    <hyperlink ref="N29" r:id="rId55" xr:uid="{4730FD09-68DF-8A44-A23F-7F361102D8A1}"/>
+    <hyperlink ref="N17" r:id="rId56" xr:uid="{2BCDABA6-B4A9-784C-A7BD-E1DA5F867CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId50"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CAE7A-1099-7F4B-A632-A531A2BD837C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9677,23 +10467,23 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9701,23 +10491,23 @@
         <v>0.40625</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9725,23 +10515,23 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9749,23 +10539,23 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9773,23 +10563,23 @@
         <v>0.4375</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9797,14 +10587,14 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -9815,7 +10605,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9829,12 +10619,12 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -9845,23 +10635,23 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9869,23 +10659,23 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9893,23 +10683,23 @@
         <v>0.5625</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9917,23 +10707,23 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9941,14 +10731,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -9959,23 +10749,23 @@
         <v>0.625</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9983,23 +10773,23 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10007,23 +10797,23 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10031,23 +10821,23 @@
         <v>0.65625</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10055,16 +10845,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2024-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/GitHub/EL24/ELDIA/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB5D25-96B3-0B44-8824-1482A7105752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE129A-5570-D34B-B4A6-37996330EC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="740" windowWidth="24960" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2768,10 +2768,10 @@
   <dimension ref="A1:AE995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3312,7 +3312,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>149</v>
@@ -3526,7 +3526,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>150</v>
@@ -4124,7 +4124,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>162</v>
